--- a/docs/profileAPIs.xlsx
+++ b/docs/profileAPIs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12750" windowHeight="6810" tabRatio="921"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12750" windowHeight="6810" tabRatio="921" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="API List" sheetId="4" r:id="rId1"/>
@@ -2228,6 +2228,24 @@
     <xf numFmtId="0" fontId="3" fillId="40" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2246,22 +2264,229 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2274,231 +2499,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2538,82 +2538,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>647301</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>123677</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4467225" y="6410325"/>
-          <a:ext cx="3190476" cy="1180952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>37670</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>190347</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="962025" y="4591050"/>
-          <a:ext cx="3438095" cy="1228572"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>29</xdr:row>
@@ -2633,7 +2557,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2642,6 +2566,82 @@
         <a:xfrm>
           <a:off x="952500" y="6448425"/>
           <a:ext cx="2600000" cy="933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>28173</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4476750" y="5924550"/>
+          <a:ext cx="3219048" cy="1200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>66270</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990600" y="4086225"/>
+          <a:ext cx="3238095" cy="1180952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2695,20 +2695,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>37695</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>161777</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>456801</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123677</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2721,8 +2721,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="962025" y="4533900"/>
-          <a:ext cx="3238095" cy="1180952"/>
+          <a:off x="4276725" y="6410325"/>
+          <a:ext cx="3190476" cy="1133327"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2733,20 +2733,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>352023</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>9375</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>37670</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133197</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="6" name="Picture 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2759,8 +2759,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4143375" y="6438900"/>
-          <a:ext cx="3219048" cy="1200000"/>
+          <a:off x="962025" y="4533900"/>
+          <a:ext cx="3438095" cy="1152372"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3064,7 +3064,7 @@
   </sheetPr>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11:E11"/>
     </sheetView>
   </sheetViews>
@@ -3125,9 +3125,9 @@
     </row>
     <row r="4" spans="2:10" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="47"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
       <c r="F4" s="27"/>
       <c r="G4" s="71"/>
       <c r="H4" s="27"/>
@@ -3143,16 +3143,16 @@
       <c r="E5" s="28"/>
       <c r="F5" s="32"/>
       <c r="G5" s="68"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="131"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="125"/>
       <c r="J5" s="48"/>
     </row>
     <row r="6" spans="2:10" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="47"/>
-      <c r="C6" s="132" t="s">
+      <c r="C6" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="132"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="33" t="s">
         <v>20</v>
       </c>
@@ -3170,9 +3170,9 @@
     </row>
     <row r="7" spans="2:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="47"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
       <c r="F7" s="27"/>
       <c r="G7" s="71"/>
       <c r="H7" s="27"/>
@@ -3182,22 +3182,22 @@
     <row r="8" spans="2:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B8" s="47"/>
       <c r="C8" s="58"/>
-      <c r="D8" s="123" t="s">
+      <c r="D8" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="123"/>
+      <c r="E8" s="129"/>
       <c r="F8" s="59"/>
       <c r="G8" s="67"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="129"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="123"/>
       <c r="J8" s="48"/>
     </row>
     <row r="9" spans="2:10" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B9" s="47"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="126"/>
+      <c r="D9" s="132"/>
       <c r="E9" s="55" t="s">
         <v>27</v>
       </c>
@@ -3215,10 +3215,10 @@
     </row>
     <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="47"/>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="125"/>
+      <c r="D10" s="131"/>
       <c r="E10" s="54" t="s">
         <v>47</v>
       </c>
@@ -3236,9 +3236,9 @@
     </row>
     <row r="11" spans="2:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B11" s="47"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="27"/>
       <c r="G11" s="71"/>
       <c r="H11" s="27"/>
@@ -3260,10 +3260,10 @@
     </row>
     <row r="13" spans="2:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B13" s="47"/>
-      <c r="C13" s="124" t="s">
+      <c r="C13" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="124"/>
+      <c r="D13" s="130"/>
       <c r="E13" s="42"/>
       <c r="F13" s="29"/>
       <c r="G13" s="73" t="s">
@@ -3279,10 +3279,10 @@
     </row>
     <row r="14" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="47"/>
-      <c r="C14" s="124" t="s">
+      <c r="C14" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="124"/>
+      <c r="D14" s="130"/>
       <c r="E14" s="42"/>
       <c r="F14" s="29"/>
       <c r="G14" s="73" t="s">
@@ -3298,10 +3298,10 @@
     </row>
     <row r="15" spans="2:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B15" s="47"/>
-      <c r="C15" s="124" t="s">
+      <c r="C15" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="124"/>
+      <c r="D15" s="130"/>
       <c r="E15" s="40"/>
       <c r="F15" s="29"/>
       <c r="G15" s="73" t="s">
@@ -3317,10 +3317,10 @@
     </row>
     <row r="16" spans="2:10" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B16" s="47"/>
-      <c r="C16" s="124" t="s">
+      <c r="C16" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="124"/>
+      <c r="D16" s="130"/>
       <c r="E16" s="40"/>
       <c r="F16" s="29"/>
       <c r="G16" s="73" t="s">
@@ -3336,10 +3336,10 @@
     </row>
     <row r="17" spans="2:10" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B17" s="47"/>
-      <c r="C17" s="124" t="s">
+      <c r="C17" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="124"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="40"/>
       <c r="F17" s="29"/>
       <c r="G17" s="73" t="s">
@@ -3355,10 +3355,10 @@
     </row>
     <row r="18" spans="2:10" s="77" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B18" s="47"/>
-      <c r="C18" s="124" t="s">
+      <c r="C18" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="124"/>
+      <c r="D18" s="130"/>
       <c r="E18" s="40"/>
       <c r="F18" s="29"/>
       <c r="G18" s="73" t="s">
@@ -3374,10 +3374,10 @@
     </row>
     <row r="19" spans="2:10" s="77" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="47"/>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="127"/>
+      <c r="D19" s="133"/>
       <c r="E19" s="41"/>
       <c r="F19" s="39"/>
       <c r="G19" s="76" t="s">
@@ -3393,9 +3393,9 @@
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B20" s="47"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
       <c r="F20" s="27"/>
       <c r="G20" s="71"/>
       <c r="H20" s="27"/>
@@ -3405,11 +3405,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="17">
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C7:E7"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="D8:E8"/>
@@ -3422,6 +3417,11 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C7:E7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -3461,8 +3461,8 @@
   </sheetPr>
   <dimension ref="A1:BE44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE25" sqref="AE25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
@@ -3599,102 +3599,102 @@
       <c r="AT4" s="3"/>
     </row>
     <row r="6" spans="1:57" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="144" t="s">
+      <c r="C6" s="152"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="157" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="145"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="145"/>
-      <c r="P6" s="145"/>
-      <c r="Q6" s="145"/>
-      <c r="R6" s="145"/>
-      <c r="S6" s="145"/>
-      <c r="T6" s="145"/>
-      <c r="U6" s="145"/>
-      <c r="V6" s="145"/>
-      <c r="W6" s="145"/>
-      <c r="X6" s="145"/>
-      <c r="Y6" s="145"/>
-      <c r="Z6" s="145"/>
-      <c r="AA6" s="145"/>
-      <c r="AB6" s="145"/>
-      <c r="AC6" s="145"/>
-      <c r="AD6" s="145"/>
-      <c r="AE6" s="145"/>
-      <c r="AF6" s="145"/>
-      <c r="AG6" s="145"/>
-      <c r="AH6" s="145"/>
-      <c r="AI6" s="145"/>
-      <c r="AJ6" s="145"/>
-      <c r="AK6" s="145"/>
-      <c r="AL6" s="145"/>
-      <c r="AM6" s="145"/>
-      <c r="AN6" s="145"/>
-      <c r="AO6" s="145"/>
-      <c r="AP6" s="145"/>
-      <c r="AQ6" s="145"/>
-      <c r="AR6" s="145"/>
-      <c r="AS6" s="145"/>
-      <c r="AT6" s="146"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="158"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="158"/>
+      <c r="N6" s="158"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="158"/>
+      <c r="Q6" s="158"/>
+      <c r="R6" s="158"/>
+      <c r="S6" s="158"/>
+      <c r="T6" s="158"/>
+      <c r="U6" s="158"/>
+      <c r="V6" s="158"/>
+      <c r="W6" s="158"/>
+      <c r="X6" s="158"/>
+      <c r="Y6" s="158"/>
+      <c r="Z6" s="158"/>
+      <c r="AA6" s="158"/>
+      <c r="AB6" s="158"/>
+      <c r="AC6" s="158"/>
+      <c r="AD6" s="158"/>
+      <c r="AE6" s="158"/>
+      <c r="AF6" s="158"/>
+      <c r="AG6" s="158"/>
+      <c r="AH6" s="158"/>
+      <c r="AI6" s="158"/>
+      <c r="AJ6" s="158"/>
+      <c r="AK6" s="158"/>
+      <c r="AL6" s="158"/>
+      <c r="AM6" s="158"/>
+      <c r="AN6" s="158"/>
+      <c r="AO6" s="158"/>
+      <c r="AP6" s="158"/>
+      <c r="AQ6" s="158"/>
+      <c r="AR6" s="158"/>
+      <c r="AS6" s="158"/>
+      <c r="AT6" s="159"/>
     </row>
     <row r="7" spans="1:57" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="141"/>
-      <c r="C7" s="142"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="148"/>
-      <c r="K7" s="148"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="148"/>
-      <c r="N7" s="148"/>
-      <c r="O7" s="148"/>
-      <c r="P7" s="148"/>
-      <c r="Q7" s="148"/>
-      <c r="R7" s="148"/>
-      <c r="S7" s="148"/>
-      <c r="T7" s="148"/>
-      <c r="U7" s="148"/>
-      <c r="V7" s="148"/>
-      <c r="W7" s="148"/>
-      <c r="X7" s="148"/>
-      <c r="Y7" s="148"/>
-      <c r="Z7" s="148"/>
-      <c r="AA7" s="148"/>
-      <c r="AB7" s="148"/>
-      <c r="AC7" s="148"/>
-      <c r="AD7" s="148"/>
-      <c r="AE7" s="148"/>
-      <c r="AF7" s="148"/>
-      <c r="AG7" s="148"/>
-      <c r="AH7" s="148"/>
-      <c r="AI7" s="148"/>
-      <c r="AJ7" s="148"/>
-      <c r="AK7" s="148"/>
-      <c r="AL7" s="148"/>
-      <c r="AM7" s="148"/>
-      <c r="AN7" s="148"/>
-      <c r="AO7" s="148"/>
-      <c r="AP7" s="148"/>
-      <c r="AQ7" s="148"/>
-      <c r="AR7" s="148"/>
-      <c r="AS7" s="148"/>
-      <c r="AT7" s="149"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
+      <c r="L7" s="161"/>
+      <c r="M7" s="161"/>
+      <c r="N7" s="161"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="161"/>
+      <c r="S7" s="161"/>
+      <c r="T7" s="161"/>
+      <c r="U7" s="161"/>
+      <c r="V7" s="161"/>
+      <c r="W7" s="161"/>
+      <c r="X7" s="161"/>
+      <c r="Y7" s="161"/>
+      <c r="Z7" s="161"/>
+      <c r="AA7" s="161"/>
+      <c r="AB7" s="161"/>
+      <c r="AC7" s="161"/>
+      <c r="AD7" s="161"/>
+      <c r="AE7" s="161"/>
+      <c r="AF7" s="161"/>
+      <c r="AG7" s="161"/>
+      <c r="AH7" s="161"/>
+      <c r="AI7" s="161"/>
+      <c r="AJ7" s="161"/>
+      <c r="AK7" s="161"/>
+      <c r="AL7" s="161"/>
+      <c r="AM7" s="161"/>
+      <c r="AN7" s="161"/>
+      <c r="AO7" s="161"/>
+      <c r="AP7" s="161"/>
+      <c r="AQ7" s="161"/>
+      <c r="AR7" s="161"/>
+      <c r="AS7" s="161"/>
+      <c r="AT7" s="162"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.15">
       <c r="B8" s="16"/>
@@ -3794,144 +3794,144 @@
     </row>
     <row r="10" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="16"/>
-      <c r="C10" s="150" t="s">
+      <c r="C10" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="150"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="150"/>
-      <c r="L10" s="150"/>
-      <c r="M10" s="150"/>
-      <c r="N10" s="150"/>
-      <c r="O10" s="150"/>
-      <c r="P10" s="150"/>
-      <c r="Q10" s="150"/>
-      <c r="R10" s="150"/>
-      <c r="S10" s="150"/>
-      <c r="T10" s="150"/>
-      <c r="U10" s="150"/>
-      <c r="V10" s="150"/>
-      <c r="W10" s="150"/>
-      <c r="X10" s="150"/>
-      <c r="Y10" s="150"/>
-      <c r="Z10" s="150"/>
-      <c r="AA10" s="150"/>
-      <c r="AB10" s="150"/>
-      <c r="AC10" s="150"/>
-      <c r="AD10" s="150"/>
-      <c r="AE10" s="150"/>
-      <c r="AF10" s="150"/>
-      <c r="AG10" s="150"/>
-      <c r="AH10" s="150"/>
-      <c r="AI10" s="150"/>
-      <c r="AJ10" s="150"/>
-      <c r="AK10" s="150"/>
-      <c r="AL10" s="150"/>
-      <c r="AM10" s="150"/>
-      <c r="AN10" s="150"/>
-      <c r="AO10" s="150"/>
-      <c r="AP10" s="150"/>
-      <c r="AQ10" s="150"/>
-      <c r="AR10" s="150"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="163"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="163"/>
+      <c r="Q10" s="163"/>
+      <c r="R10" s="163"/>
+      <c r="S10" s="163"/>
+      <c r="T10" s="163"/>
+      <c r="U10" s="163"/>
+      <c r="V10" s="163"/>
+      <c r="W10" s="163"/>
+      <c r="X10" s="163"/>
+      <c r="Y10" s="163"/>
+      <c r="Z10" s="163"/>
+      <c r="AA10" s="163"/>
+      <c r="AB10" s="163"/>
+      <c r="AC10" s="163"/>
+      <c r="AD10" s="163"/>
+      <c r="AE10" s="163"/>
+      <c r="AF10" s="163"/>
+      <c r="AG10" s="163"/>
+      <c r="AH10" s="163"/>
+      <c r="AI10" s="163"/>
+      <c r="AJ10" s="163"/>
+      <c r="AK10" s="163"/>
+      <c r="AL10" s="163"/>
+      <c r="AM10" s="163"/>
+      <c r="AN10" s="163"/>
+      <c r="AO10" s="163"/>
+      <c r="AP10" s="163"/>
+      <c r="AQ10" s="163"/>
+      <c r="AR10" s="163"/>
       <c r="AS10" s="6"/>
       <c r="AT10" s="18"/>
     </row>
     <row r="11" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="16"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="150"/>
-      <c r="L11" s="150"/>
-      <c r="M11" s="150"/>
-      <c r="N11" s="150"/>
-      <c r="O11" s="150"/>
-      <c r="P11" s="150"/>
-      <c r="Q11" s="150"/>
-      <c r="R11" s="150"/>
-      <c r="S11" s="150"/>
-      <c r="T11" s="150"/>
-      <c r="U11" s="150"/>
-      <c r="V11" s="150"/>
-      <c r="W11" s="150"/>
-      <c r="X11" s="150"/>
-      <c r="Y11" s="150"/>
-      <c r="Z11" s="150"/>
-      <c r="AA11" s="150"/>
-      <c r="AB11" s="150"/>
-      <c r="AC11" s="150"/>
-      <c r="AD11" s="150"/>
-      <c r="AE11" s="150"/>
-      <c r="AF11" s="150"/>
-      <c r="AG11" s="150"/>
-      <c r="AH11" s="150"/>
-      <c r="AI11" s="150"/>
-      <c r="AJ11" s="150"/>
-      <c r="AK11" s="150"/>
-      <c r="AL11" s="150"/>
-      <c r="AM11" s="150"/>
-      <c r="AN11" s="150"/>
-      <c r="AO11" s="150"/>
-      <c r="AP11" s="150"/>
-      <c r="AQ11" s="150"/>
-      <c r="AR11" s="150"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
+      <c r="L11" s="163"/>
+      <c r="M11" s="163"/>
+      <c r="N11" s="163"/>
+      <c r="O11" s="163"/>
+      <c r="P11" s="163"/>
+      <c r="Q11" s="163"/>
+      <c r="R11" s="163"/>
+      <c r="S11" s="163"/>
+      <c r="T11" s="163"/>
+      <c r="U11" s="163"/>
+      <c r="V11" s="163"/>
+      <c r="W11" s="163"/>
+      <c r="X11" s="163"/>
+      <c r="Y11" s="163"/>
+      <c r="Z11" s="163"/>
+      <c r="AA11" s="163"/>
+      <c r="AB11" s="163"/>
+      <c r="AC11" s="163"/>
+      <c r="AD11" s="163"/>
+      <c r="AE11" s="163"/>
+      <c r="AF11" s="163"/>
+      <c r="AG11" s="163"/>
+      <c r="AH11" s="163"/>
+      <c r="AI11" s="163"/>
+      <c r="AJ11" s="163"/>
+      <c r="AK11" s="163"/>
+      <c r="AL11" s="163"/>
+      <c r="AM11" s="163"/>
+      <c r="AN11" s="163"/>
+      <c r="AO11" s="163"/>
+      <c r="AP11" s="163"/>
+      <c r="AQ11" s="163"/>
+      <c r="AR11" s="163"/>
       <c r="AS11" s="6"/>
       <c r="AT11" s="18"/>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.15">
       <c r="B12" s="16"/>
-      <c r="C12" s="150"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="150"/>
-      <c r="M12" s="150"/>
-      <c r="N12" s="150"/>
-      <c r="O12" s="150"/>
-      <c r="P12" s="150"/>
-      <c r="Q12" s="150"/>
-      <c r="R12" s="150"/>
-      <c r="S12" s="150"/>
-      <c r="T12" s="150"/>
-      <c r="U12" s="150"/>
-      <c r="V12" s="150"/>
-      <c r="W12" s="150"/>
-      <c r="X12" s="150"/>
-      <c r="Y12" s="150"/>
-      <c r="Z12" s="150"/>
-      <c r="AA12" s="150"/>
-      <c r="AB12" s="150"/>
-      <c r="AC12" s="150"/>
-      <c r="AD12" s="150"/>
-      <c r="AE12" s="150"/>
-      <c r="AF12" s="150"/>
-      <c r="AG12" s="150"/>
-      <c r="AH12" s="150"/>
-      <c r="AI12" s="150"/>
-      <c r="AJ12" s="150"/>
-      <c r="AK12" s="150"/>
-      <c r="AL12" s="150"/>
-      <c r="AM12" s="150"/>
-      <c r="AN12" s="150"/>
-      <c r="AO12" s="150"/>
-      <c r="AP12" s="150"/>
-      <c r="AQ12" s="150"/>
-      <c r="AR12" s="150"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
+      <c r="L12" s="163"/>
+      <c r="M12" s="163"/>
+      <c r="N12" s="163"/>
+      <c r="O12" s="163"/>
+      <c r="P12" s="163"/>
+      <c r="Q12" s="163"/>
+      <c r="R12" s="163"/>
+      <c r="S12" s="163"/>
+      <c r="T12" s="163"/>
+      <c r="U12" s="163"/>
+      <c r="V12" s="163"/>
+      <c r="W12" s="163"/>
+      <c r="X12" s="163"/>
+      <c r="Y12" s="163"/>
+      <c r="Z12" s="163"/>
+      <c r="AA12" s="163"/>
+      <c r="AB12" s="163"/>
+      <c r="AC12" s="163"/>
+      <c r="AD12" s="163"/>
+      <c r="AE12" s="163"/>
+      <c r="AF12" s="163"/>
+      <c r="AG12" s="163"/>
+      <c r="AH12" s="163"/>
+      <c r="AI12" s="163"/>
+      <c r="AJ12" s="163"/>
+      <c r="AK12" s="163"/>
+      <c r="AL12" s="163"/>
+      <c r="AM12" s="163"/>
+      <c r="AN12" s="163"/>
+      <c r="AO12" s="163"/>
+      <c r="AP12" s="163"/>
+      <c r="AQ12" s="163"/>
+      <c r="AR12" s="163"/>
       <c r="AS12" s="6"/>
       <c r="AT12" s="18"/>
     </row>
@@ -3986,173 +3986,173 @@
     </row>
     <row r="14" spans="1:57" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16"/>
-      <c r="C14" s="151" t="s">
+      <c r="C14" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="154" t="s">
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="152"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="152"/>
-      <c r="N14" s="152"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="152"/>
-      <c r="Q14" s="152"/>
-      <c r="R14" s="152"/>
-      <c r="S14" s="155"/>
-      <c r="T14" s="156" t="s">
+      <c r="K14" s="165"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="165"/>
+      <c r="N14" s="165"/>
+      <c r="O14" s="165"/>
+      <c r="P14" s="165"/>
+      <c r="Q14" s="165"/>
+      <c r="R14" s="165"/>
+      <c r="S14" s="168"/>
+      <c r="T14" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="U14" s="152"/>
-      <c r="V14" s="152"/>
-      <c r="W14" s="155"/>
-      <c r="X14" s="156" t="s">
+      <c r="U14" s="165"/>
+      <c r="V14" s="165"/>
+      <c r="W14" s="168"/>
+      <c r="X14" s="169" t="s">
         <v>55</v>
       </c>
-      <c r="Y14" s="152"/>
-      <c r="Z14" s="152"/>
-      <c r="AA14" s="155"/>
-      <c r="AB14" s="156" t="s">
+      <c r="Y14" s="165"/>
+      <c r="Z14" s="165"/>
+      <c r="AA14" s="168"/>
+      <c r="AB14" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="AC14" s="152"/>
-      <c r="AD14" s="152"/>
-      <c r="AE14" s="155"/>
-      <c r="AF14" s="156" t="s">
+      <c r="AC14" s="165"/>
+      <c r="AD14" s="165"/>
+      <c r="AE14" s="168"/>
+      <c r="AF14" s="169" t="s">
         <v>57</v>
       </c>
-      <c r="AG14" s="155"/>
-      <c r="AH14" s="156" t="s">
+      <c r="AG14" s="168"/>
+      <c r="AH14" s="169" t="s">
         <v>58</v>
       </c>
-      <c r="AI14" s="152"/>
-      <c r="AJ14" s="152"/>
-      <c r="AK14" s="152"/>
-      <c r="AL14" s="152"/>
-      <c r="AM14" s="152"/>
-      <c r="AN14" s="152"/>
-      <c r="AO14" s="152"/>
-      <c r="AP14" s="152"/>
-      <c r="AQ14" s="152"/>
-      <c r="AR14" s="152"/>
-      <c r="AS14" s="157"/>
+      <c r="AI14" s="165"/>
+      <c r="AJ14" s="165"/>
+      <c r="AK14" s="165"/>
+      <c r="AL14" s="165"/>
+      <c r="AM14" s="165"/>
+      <c r="AN14" s="165"/>
+      <c r="AO14" s="165"/>
+      <c r="AP14" s="165"/>
+      <c r="AQ14" s="165"/>
+      <c r="AR14" s="165"/>
+      <c r="AS14" s="170"/>
       <c r="AT14" s="18"/>
     </row>
     <row r="15" spans="1:57" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16"/>
-      <c r="C15" s="163" t="s">
+      <c r="C15" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="166" t="s">
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="K15" s="164"/>
-      <c r="L15" s="164"/>
-      <c r="M15" s="164"/>
-      <c r="N15" s="164"/>
-      <c r="O15" s="164"/>
-      <c r="P15" s="164"/>
-      <c r="Q15" s="164"/>
-      <c r="R15" s="164"/>
-      <c r="S15" s="165"/>
-      <c r="T15" s="166" t="s">
+      <c r="K15" s="148"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="148"/>
+      <c r="N15" s="148"/>
+      <c r="O15" s="148"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="148"/>
+      <c r="R15" s="148"/>
+      <c r="S15" s="149"/>
+      <c r="T15" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="U15" s="164"/>
-      <c r="V15" s="164"/>
-      <c r="W15" s="165"/>
-      <c r="X15" s="166"/>
-      <c r="Y15" s="164"/>
-      <c r="Z15" s="164"/>
-      <c r="AA15" s="165"/>
-      <c r="AB15" s="166"/>
-      <c r="AC15" s="164"/>
-      <c r="AD15" s="164"/>
-      <c r="AE15" s="165"/>
-      <c r="AF15" s="158" t="s">
+      <c r="U15" s="148"/>
+      <c r="V15" s="148"/>
+      <c r="W15" s="149"/>
+      <c r="X15" s="150"/>
+      <c r="Y15" s="148"/>
+      <c r="Z15" s="148"/>
+      <c r="AA15" s="149"/>
+      <c r="AB15" s="150"/>
+      <c r="AC15" s="148"/>
+      <c r="AD15" s="148"/>
+      <c r="AE15" s="149"/>
+      <c r="AF15" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="AG15" s="159"/>
-      <c r="AH15" s="160"/>
-      <c r="AI15" s="161"/>
-      <c r="AJ15" s="161"/>
-      <c r="AK15" s="161"/>
-      <c r="AL15" s="161"/>
-      <c r="AM15" s="161"/>
-      <c r="AN15" s="161"/>
-      <c r="AO15" s="161"/>
-      <c r="AP15" s="161"/>
-      <c r="AQ15" s="161"/>
-      <c r="AR15" s="161"/>
-      <c r="AS15" s="162"/>
+      <c r="AG15" s="143"/>
+      <c r="AH15" s="144"/>
+      <c r="AI15" s="145"/>
+      <c r="AJ15" s="145"/>
+      <c r="AK15" s="145"/>
+      <c r="AL15" s="145"/>
+      <c r="AM15" s="145"/>
+      <c r="AN15" s="145"/>
+      <c r="AO15" s="145"/>
+      <c r="AP15" s="145"/>
+      <c r="AQ15" s="145"/>
+      <c r="AR15" s="145"/>
+      <c r="AS15" s="146"/>
       <c r="AT15" s="19"/>
     </row>
     <row r="16" spans="1:57" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="16"/>
-      <c r="C16" s="163" t="s">
+      <c r="C16" s="147" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="165"/>
-      <c r="J16" s="166" t="s">
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="150" t="s">
         <v>70</v>
       </c>
-      <c r="K16" s="164"/>
-      <c r="L16" s="164"/>
-      <c r="M16" s="164"/>
-      <c r="N16" s="164"/>
-      <c r="O16" s="164"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="164"/>
-      <c r="R16" s="164"/>
-      <c r="S16" s="165"/>
-      <c r="T16" s="166" t="s">
+      <c r="K16" s="148"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="148"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="148"/>
+      <c r="P16" s="148"/>
+      <c r="Q16" s="148"/>
+      <c r="R16" s="148"/>
+      <c r="S16" s="149"/>
+      <c r="T16" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="U16" s="164"/>
-      <c r="V16" s="164"/>
-      <c r="W16" s="165"/>
-      <c r="X16" s="166"/>
-      <c r="Y16" s="164"/>
-      <c r="Z16" s="164"/>
-      <c r="AA16" s="165"/>
-      <c r="AB16" s="166"/>
-      <c r="AC16" s="164"/>
-      <c r="AD16" s="164"/>
-      <c r="AE16" s="165"/>
-      <c r="AF16" s="158" t="s">
+      <c r="U16" s="148"/>
+      <c r="V16" s="148"/>
+      <c r="W16" s="149"/>
+      <c r="X16" s="150"/>
+      <c r="Y16" s="148"/>
+      <c r="Z16" s="148"/>
+      <c r="AA16" s="149"/>
+      <c r="AB16" s="150"/>
+      <c r="AC16" s="148"/>
+      <c r="AD16" s="148"/>
+      <c r="AE16" s="149"/>
+      <c r="AF16" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="AG16" s="159"/>
-      <c r="AH16" s="160"/>
-      <c r="AI16" s="161"/>
-      <c r="AJ16" s="161"/>
-      <c r="AK16" s="161"/>
-      <c r="AL16" s="161"/>
-      <c r="AM16" s="161"/>
-      <c r="AN16" s="161"/>
-      <c r="AO16" s="161"/>
-      <c r="AP16" s="161"/>
-      <c r="AQ16" s="161"/>
-      <c r="AR16" s="161"/>
-      <c r="AS16" s="162"/>
+      <c r="AG16" s="143"/>
+      <c r="AH16" s="144"/>
+      <c r="AI16" s="145"/>
+      <c r="AJ16" s="145"/>
+      <c r="AK16" s="145"/>
+      <c r="AL16" s="145"/>
+      <c r="AM16" s="145"/>
+      <c r="AN16" s="145"/>
+      <c r="AO16" s="145"/>
+      <c r="AP16" s="145"/>
+      <c r="AQ16" s="145"/>
+      <c r="AR16" s="145"/>
+      <c r="AS16" s="146"/>
       <c r="AT16" s="19"/>
       <c r="BE16" s="104"/>
     </row>
@@ -4243,15 +4243,15 @@
       <c r="AJ18" s="6"/>
       <c r="AK18" s="6"/>
       <c r="AL18" s="6"/>
-      <c r="AM18" s="167" t="s">
+      <c r="AM18" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="AN18" s="168"/>
-      <c r="AO18" s="168"/>
-      <c r="AP18" s="168"/>
-      <c r="AQ18" s="168"/>
-      <c r="AR18" s="168"/>
-      <c r="AS18" s="169"/>
+      <c r="AN18" s="140"/>
+      <c r="AO18" s="140"/>
+      <c r="AP18" s="140"/>
+      <c r="AQ18" s="140"/>
+      <c r="AR18" s="140"/>
+      <c r="AS18" s="141"/>
       <c r="AT18" s="18"/>
     </row>
     <row r="19" spans="2:46" ht="16.5" x14ac:dyDescent="0.15">
@@ -5159,54 +5159,54 @@
     </row>
     <row r="38" spans="2:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="16"/>
-      <c r="C38" s="170">
+      <c r="C38" s="134">
         <v>400</v>
       </c>
-      <c r="D38" s="170"/>
-      <c r="E38" s="171" t="s">
+      <c r="D38" s="134"/>
+      <c r="E38" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="171"/>
-      <c r="G38" s="171"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="171"/>
-      <c r="K38" s="171"/>
-      <c r="L38" s="171"/>
-      <c r="M38" s="171"/>
-      <c r="N38" s="171"/>
-      <c r="O38" s="172" t="s">
+      <c r="F38" s="135"/>
+      <c r="G38" s="135"/>
+      <c r="H38" s="135"/>
+      <c r="I38" s="135"/>
+      <c r="J38" s="135"/>
+      <c r="K38" s="135"/>
+      <c r="L38" s="135"/>
+      <c r="M38" s="135"/>
+      <c r="N38" s="135"/>
+      <c r="O38" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="P38" s="172"/>
-      <c r="Q38" s="172"/>
-      <c r="R38" s="172"/>
-      <c r="S38" s="172"/>
-      <c r="T38" s="172"/>
-      <c r="U38" s="172"/>
-      <c r="V38" s="172"/>
-      <c r="W38" s="172"/>
-      <c r="X38" s="172"/>
-      <c r="Y38" s="172"/>
-      <c r="Z38" s="172"/>
-      <c r="AA38" s="172"/>
-      <c r="AB38" s="172"/>
-      <c r="AC38" s="172"/>
-      <c r="AD38" s="172"/>
-      <c r="AE38" s="172"/>
-      <c r="AF38" s="172"/>
-      <c r="AG38" s="172"/>
-      <c r="AH38" s="172"/>
-      <c r="AI38" s="172"/>
-      <c r="AJ38" s="172"/>
-      <c r="AK38" s="172"/>
-      <c r="AL38" s="172"/>
-      <c r="AM38" s="172"/>
-      <c r="AN38" s="172"/>
-      <c r="AO38" s="172"/>
-      <c r="AP38" s="172"/>
-      <c r="AQ38" s="172"/>
-      <c r="AR38" s="172"/>
+      <c r="P38" s="136"/>
+      <c r="Q38" s="136"/>
+      <c r="R38" s="136"/>
+      <c r="S38" s="136"/>
+      <c r="T38" s="136"/>
+      <c r="U38" s="136"/>
+      <c r="V38" s="136"/>
+      <c r="W38" s="136"/>
+      <c r="X38" s="136"/>
+      <c r="Y38" s="136"/>
+      <c r="Z38" s="136"/>
+      <c r="AA38" s="136"/>
+      <c r="AB38" s="136"/>
+      <c r="AC38" s="136"/>
+      <c r="AD38" s="136"/>
+      <c r="AE38" s="136"/>
+      <c r="AF38" s="136"/>
+      <c r="AG38" s="136"/>
+      <c r="AH38" s="136"/>
+      <c r="AI38" s="136"/>
+      <c r="AJ38" s="136"/>
+      <c r="AK38" s="136"/>
+      <c r="AL38" s="136"/>
+      <c r="AM38" s="136"/>
+      <c r="AN38" s="136"/>
+      <c r="AO38" s="136"/>
+      <c r="AP38" s="136"/>
+      <c r="AQ38" s="136"/>
+      <c r="AR38" s="136"/>
       <c r="AS38" s="12"/>
       <c r="AT38" s="18"/>
     </row>
@@ -5224,89 +5224,89 @@
       <c r="L39" s="13"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
-      <c r="O39" s="174"/>
-      <c r="P39" s="174"/>
-      <c r="Q39" s="174"/>
-      <c r="R39" s="174"/>
-      <c r="S39" s="174"/>
-      <c r="T39" s="174"/>
-      <c r="U39" s="174"/>
-      <c r="V39" s="174"/>
-      <c r="W39" s="174"/>
-      <c r="X39" s="174"/>
-      <c r="Y39" s="174"/>
-      <c r="Z39" s="174"/>
-      <c r="AA39" s="174"/>
-      <c r="AB39" s="174"/>
-      <c r="AC39" s="174"/>
-      <c r="AD39" s="174"/>
-      <c r="AE39" s="174"/>
-      <c r="AF39" s="174"/>
-      <c r="AG39" s="174"/>
-      <c r="AH39" s="174"/>
-      <c r="AI39" s="174"/>
-      <c r="AJ39" s="174"/>
-      <c r="AK39" s="174"/>
-      <c r="AL39" s="174"/>
-      <c r="AM39" s="174"/>
-      <c r="AN39" s="174"/>
-      <c r="AO39" s="174"/>
-      <c r="AP39" s="174"/>
-      <c r="AQ39" s="174"/>
-      <c r="AR39" s="174"/>
+      <c r="O39" s="138"/>
+      <c r="P39" s="138"/>
+      <c r="Q39" s="138"/>
+      <c r="R39" s="138"/>
+      <c r="S39" s="138"/>
+      <c r="T39" s="138"/>
+      <c r="U39" s="138"/>
+      <c r="V39" s="138"/>
+      <c r="W39" s="138"/>
+      <c r="X39" s="138"/>
+      <c r="Y39" s="138"/>
+      <c r="Z39" s="138"/>
+      <c r="AA39" s="138"/>
+      <c r="AB39" s="138"/>
+      <c r="AC39" s="138"/>
+      <c r="AD39" s="138"/>
+      <c r="AE39" s="138"/>
+      <c r="AF39" s="138"/>
+      <c r="AG39" s="138"/>
+      <c r="AH39" s="138"/>
+      <c r="AI39" s="138"/>
+      <c r="AJ39" s="138"/>
+      <c r="AK39" s="138"/>
+      <c r="AL39" s="138"/>
+      <c r="AM39" s="138"/>
+      <c r="AN39" s="138"/>
+      <c r="AO39" s="138"/>
+      <c r="AP39" s="138"/>
+      <c r="AQ39" s="138"/>
+      <c r="AR39" s="138"/>
       <c r="AS39" s="10"/>
       <c r="AT39" s="18"/>
     </row>
     <row r="40" spans="2:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="16"/>
-      <c r="C40" s="170">
+      <c r="C40" s="134">
         <v>401</v>
       </c>
-      <c r="D40" s="170"/>
-      <c r="E40" s="171" t="s">
+      <c r="D40" s="134"/>
+      <c r="E40" s="135" t="s">
         <v>131</v>
       </c>
-      <c r="F40" s="171"/>
-      <c r="G40" s="171"/>
-      <c r="H40" s="171"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="171"/>
-      <c r="K40" s="171"/>
-      <c r="L40" s="171"/>
-      <c r="M40" s="171"/>
-      <c r="N40" s="171"/>
-      <c r="O40" s="172" t="s">
+      <c r="F40" s="135"/>
+      <c r="G40" s="135"/>
+      <c r="H40" s="135"/>
+      <c r="I40" s="135"/>
+      <c r="J40" s="135"/>
+      <c r="K40" s="135"/>
+      <c r="L40" s="135"/>
+      <c r="M40" s="135"/>
+      <c r="N40" s="135"/>
+      <c r="O40" s="136" t="s">
         <v>130</v>
       </c>
-      <c r="P40" s="172"/>
-      <c r="Q40" s="172"/>
-      <c r="R40" s="172"/>
-      <c r="S40" s="172"/>
-      <c r="T40" s="172"/>
-      <c r="U40" s="172"/>
-      <c r="V40" s="172"/>
-      <c r="W40" s="172"/>
-      <c r="X40" s="172"/>
-      <c r="Y40" s="172"/>
-      <c r="Z40" s="172"/>
-      <c r="AA40" s="172"/>
-      <c r="AB40" s="172"/>
-      <c r="AC40" s="172"/>
-      <c r="AD40" s="172"/>
-      <c r="AE40" s="172"/>
-      <c r="AF40" s="172"/>
-      <c r="AG40" s="172"/>
-      <c r="AH40" s="172"/>
-      <c r="AI40" s="172"/>
-      <c r="AJ40" s="172"/>
-      <c r="AK40" s="172"/>
-      <c r="AL40" s="172"/>
-      <c r="AM40" s="172"/>
-      <c r="AN40" s="172"/>
-      <c r="AO40" s="172"/>
-      <c r="AP40" s="172"/>
-      <c r="AQ40" s="172"/>
-      <c r="AR40" s="172"/>
+      <c r="P40" s="136"/>
+      <c r="Q40" s="136"/>
+      <c r="R40" s="136"/>
+      <c r="S40" s="136"/>
+      <c r="T40" s="136"/>
+      <c r="U40" s="136"/>
+      <c r="V40" s="136"/>
+      <c r="W40" s="136"/>
+      <c r="X40" s="136"/>
+      <c r="Y40" s="136"/>
+      <c r="Z40" s="136"/>
+      <c r="AA40" s="136"/>
+      <c r="AB40" s="136"/>
+      <c r="AC40" s="136"/>
+      <c r="AD40" s="136"/>
+      <c r="AE40" s="136"/>
+      <c r="AF40" s="136"/>
+      <c r="AG40" s="136"/>
+      <c r="AH40" s="136"/>
+      <c r="AI40" s="136"/>
+      <c r="AJ40" s="136"/>
+      <c r="AK40" s="136"/>
+      <c r="AL40" s="136"/>
+      <c r="AM40" s="136"/>
+      <c r="AN40" s="136"/>
+      <c r="AO40" s="136"/>
+      <c r="AP40" s="136"/>
+      <c r="AQ40" s="136"/>
+      <c r="AR40" s="136"/>
       <c r="AS40" s="6"/>
       <c r="AT40" s="18"/>
     </row>
@@ -5324,89 +5324,89 @@
       <c r="L41" s="11"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
-      <c r="O41" s="174"/>
-      <c r="P41" s="174"/>
-      <c r="Q41" s="174"/>
-      <c r="R41" s="174"/>
-      <c r="S41" s="174"/>
-      <c r="T41" s="174"/>
-      <c r="U41" s="174"/>
-      <c r="V41" s="174"/>
-      <c r="W41" s="174"/>
-      <c r="X41" s="174"/>
-      <c r="Y41" s="174"/>
-      <c r="Z41" s="174"/>
-      <c r="AA41" s="174"/>
-      <c r="AB41" s="174"/>
-      <c r="AC41" s="174"/>
-      <c r="AD41" s="174"/>
-      <c r="AE41" s="174"/>
-      <c r="AF41" s="174"/>
-      <c r="AG41" s="174"/>
-      <c r="AH41" s="174"/>
-      <c r="AI41" s="174"/>
-      <c r="AJ41" s="174"/>
-      <c r="AK41" s="174"/>
-      <c r="AL41" s="174"/>
-      <c r="AM41" s="174"/>
-      <c r="AN41" s="174"/>
-      <c r="AO41" s="174"/>
-      <c r="AP41" s="174"/>
-      <c r="AQ41" s="174"/>
-      <c r="AR41" s="174"/>
+      <c r="O41" s="138"/>
+      <c r="P41" s="138"/>
+      <c r="Q41" s="138"/>
+      <c r="R41" s="138"/>
+      <c r="S41" s="138"/>
+      <c r="T41" s="138"/>
+      <c r="U41" s="138"/>
+      <c r="V41" s="138"/>
+      <c r="W41" s="138"/>
+      <c r="X41" s="138"/>
+      <c r="Y41" s="138"/>
+      <c r="Z41" s="138"/>
+      <c r="AA41" s="138"/>
+      <c r="AB41" s="138"/>
+      <c r="AC41" s="138"/>
+      <c r="AD41" s="138"/>
+      <c r="AE41" s="138"/>
+      <c r="AF41" s="138"/>
+      <c r="AG41" s="138"/>
+      <c r="AH41" s="138"/>
+      <c r="AI41" s="138"/>
+      <c r="AJ41" s="138"/>
+      <c r="AK41" s="138"/>
+      <c r="AL41" s="138"/>
+      <c r="AM41" s="138"/>
+      <c r="AN41" s="138"/>
+      <c r="AO41" s="138"/>
+      <c r="AP41" s="138"/>
+      <c r="AQ41" s="138"/>
+      <c r="AR41" s="138"/>
       <c r="AS41" s="10"/>
       <c r="AT41" s="18"/>
     </row>
     <row r="42" spans="2:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="16"/>
-      <c r="C42" s="170">
+      <c r="C42" s="134">
         <v>409</v>
       </c>
-      <c r="D42" s="170"/>
-      <c r="E42" s="171" t="s">
+      <c r="D42" s="134"/>
+      <c r="E42" s="135" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="171"/>
-      <c r="G42" s="171"/>
-      <c r="H42" s="171"/>
-      <c r="I42" s="171"/>
-      <c r="J42" s="171"/>
-      <c r="K42" s="171"/>
-      <c r="L42" s="171"/>
-      <c r="M42" s="171"/>
-      <c r="N42" s="171"/>
-      <c r="O42" s="172" t="s">
+      <c r="F42" s="135"/>
+      <c r="G42" s="135"/>
+      <c r="H42" s="135"/>
+      <c r="I42" s="135"/>
+      <c r="J42" s="135"/>
+      <c r="K42" s="135"/>
+      <c r="L42" s="135"/>
+      <c r="M42" s="135"/>
+      <c r="N42" s="135"/>
+      <c r="O42" s="136" t="s">
         <v>129</v>
       </c>
-      <c r="P42" s="172"/>
-      <c r="Q42" s="172"/>
-      <c r="R42" s="172"/>
-      <c r="S42" s="172"/>
-      <c r="T42" s="172"/>
-      <c r="U42" s="172"/>
-      <c r="V42" s="172"/>
-      <c r="W42" s="172"/>
-      <c r="X42" s="172"/>
-      <c r="Y42" s="172"/>
-      <c r="Z42" s="172"/>
-      <c r="AA42" s="172"/>
-      <c r="AB42" s="172"/>
-      <c r="AC42" s="172"/>
-      <c r="AD42" s="172"/>
-      <c r="AE42" s="172"/>
-      <c r="AF42" s="172"/>
-      <c r="AG42" s="172"/>
-      <c r="AH42" s="172"/>
-      <c r="AI42" s="172"/>
-      <c r="AJ42" s="172"/>
-      <c r="AK42" s="172"/>
-      <c r="AL42" s="172"/>
-      <c r="AM42" s="172"/>
-      <c r="AN42" s="172"/>
-      <c r="AO42" s="172"/>
-      <c r="AP42" s="172"/>
-      <c r="AQ42" s="172"/>
-      <c r="AR42" s="172"/>
+      <c r="P42" s="136"/>
+      <c r="Q42" s="136"/>
+      <c r="R42" s="136"/>
+      <c r="S42" s="136"/>
+      <c r="T42" s="136"/>
+      <c r="U42" s="136"/>
+      <c r="V42" s="136"/>
+      <c r="W42" s="136"/>
+      <c r="X42" s="136"/>
+      <c r="Y42" s="136"/>
+      <c r="Z42" s="136"/>
+      <c r="AA42" s="136"/>
+      <c r="AB42" s="136"/>
+      <c r="AC42" s="136"/>
+      <c r="AD42" s="136"/>
+      <c r="AE42" s="136"/>
+      <c r="AF42" s="136"/>
+      <c r="AG42" s="136"/>
+      <c r="AH42" s="136"/>
+      <c r="AI42" s="136"/>
+      <c r="AJ42" s="136"/>
+      <c r="AK42" s="136"/>
+      <c r="AL42" s="136"/>
+      <c r="AM42" s="136"/>
+      <c r="AN42" s="136"/>
+      <c r="AO42" s="136"/>
+      <c r="AP42" s="136"/>
+      <c r="AQ42" s="136"/>
+      <c r="AR42" s="136"/>
       <c r="AS42" s="6"/>
       <c r="AT42" s="18"/>
     </row>
@@ -5424,36 +5424,36 @@
       <c r="L43" s="11"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
-      <c r="O43" s="173"/>
-      <c r="P43" s="173"/>
-      <c r="Q43" s="173"/>
-      <c r="R43" s="173"/>
-      <c r="S43" s="173"/>
-      <c r="T43" s="173"/>
-      <c r="U43" s="173"/>
-      <c r="V43" s="173"/>
-      <c r="W43" s="173"/>
-      <c r="X43" s="173"/>
-      <c r="Y43" s="173"/>
-      <c r="Z43" s="173"/>
-      <c r="AA43" s="173"/>
-      <c r="AB43" s="173"/>
-      <c r="AC43" s="173"/>
-      <c r="AD43" s="173"/>
-      <c r="AE43" s="173"/>
-      <c r="AF43" s="173"/>
-      <c r="AG43" s="173"/>
-      <c r="AH43" s="173"/>
-      <c r="AI43" s="173"/>
-      <c r="AJ43" s="173"/>
-      <c r="AK43" s="173"/>
-      <c r="AL43" s="173"/>
-      <c r="AM43" s="173"/>
-      <c r="AN43" s="173"/>
-      <c r="AO43" s="173"/>
-      <c r="AP43" s="173"/>
-      <c r="AQ43" s="173"/>
-      <c r="AR43" s="173"/>
+      <c r="O43" s="137"/>
+      <c r="P43" s="137"/>
+      <c r="Q43" s="137"/>
+      <c r="R43" s="137"/>
+      <c r="S43" s="137"/>
+      <c r="T43" s="137"/>
+      <c r="U43" s="137"/>
+      <c r="V43" s="137"/>
+      <c r="W43" s="137"/>
+      <c r="X43" s="137"/>
+      <c r="Y43" s="137"/>
+      <c r="Z43" s="137"/>
+      <c r="AA43" s="137"/>
+      <c r="AB43" s="137"/>
+      <c r="AC43" s="137"/>
+      <c r="AD43" s="137"/>
+      <c r="AE43" s="137"/>
+      <c r="AF43" s="137"/>
+      <c r="AG43" s="137"/>
+      <c r="AH43" s="137"/>
+      <c r="AI43" s="137"/>
+      <c r="AJ43" s="137"/>
+      <c r="AK43" s="137"/>
+      <c r="AL43" s="137"/>
+      <c r="AM43" s="137"/>
+      <c r="AN43" s="137"/>
+      <c r="AO43" s="137"/>
+      <c r="AP43" s="137"/>
+      <c r="AQ43" s="137"/>
+      <c r="AR43" s="137"/>
       <c r="AS43" s="6"/>
       <c r="AT43" s="18"/>
     </row>
@@ -5506,15 +5506,16 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:N42"/>
-    <mergeCell ref="O42:AR43"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:N38"/>
-    <mergeCell ref="O38:AR39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:N40"/>
-    <mergeCell ref="O40:AR41"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="E6:AT7"/>
+    <mergeCell ref="C10:AR12"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="J14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AB14:AE14"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AH14:AS14"/>
     <mergeCell ref="AM18:AS18"/>
     <mergeCell ref="AF15:AG15"/>
     <mergeCell ref="AH15:AS15"/>
@@ -5530,16 +5531,15 @@
     <mergeCell ref="T15:W15"/>
     <mergeCell ref="X15:AA15"/>
     <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="E6:AT7"/>
-    <mergeCell ref="C10:AR12"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="J14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="AB14:AE14"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AH14:AS14"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:N42"/>
+    <mergeCell ref="O42:AR43"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:N38"/>
+    <mergeCell ref="O38:AR39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:N40"/>
+    <mergeCell ref="O40:AR41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -5575,8 +5575,8 @@
   </sheetPr>
   <dimension ref="A1:BE47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF31" sqref="AF31"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
@@ -5789,102 +5789,102 @@
       <c r="BB5" s="66"/>
     </row>
     <row r="6" spans="1:57" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="144" t="s">
+      <c r="C6" s="152"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="157" t="s">
         <v>132</v>
       </c>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="145"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="145"/>
-      <c r="P6" s="145"/>
-      <c r="Q6" s="145"/>
-      <c r="R6" s="145"/>
-      <c r="S6" s="145"/>
-      <c r="T6" s="145"/>
-      <c r="U6" s="145"/>
-      <c r="V6" s="145"/>
-      <c r="W6" s="145"/>
-      <c r="X6" s="145"/>
-      <c r="Y6" s="145"/>
-      <c r="Z6" s="145"/>
-      <c r="AA6" s="145"/>
-      <c r="AB6" s="145"/>
-      <c r="AC6" s="145"/>
-      <c r="AD6" s="145"/>
-      <c r="AE6" s="145"/>
-      <c r="AF6" s="145"/>
-      <c r="AG6" s="145"/>
-      <c r="AH6" s="145"/>
-      <c r="AI6" s="145"/>
-      <c r="AJ6" s="145"/>
-      <c r="AK6" s="145"/>
-      <c r="AL6" s="145"/>
-      <c r="AM6" s="145"/>
-      <c r="AN6" s="145"/>
-      <c r="AO6" s="145"/>
-      <c r="AP6" s="145"/>
-      <c r="AQ6" s="145"/>
-      <c r="AR6" s="145"/>
-      <c r="AS6" s="145"/>
-      <c r="AT6" s="146"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="158"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="158"/>
+      <c r="N6" s="158"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="158"/>
+      <c r="Q6" s="158"/>
+      <c r="R6" s="158"/>
+      <c r="S6" s="158"/>
+      <c r="T6" s="158"/>
+      <c r="U6" s="158"/>
+      <c r="V6" s="158"/>
+      <c r="W6" s="158"/>
+      <c r="X6" s="158"/>
+      <c r="Y6" s="158"/>
+      <c r="Z6" s="158"/>
+      <c r="AA6" s="158"/>
+      <c r="AB6" s="158"/>
+      <c r="AC6" s="158"/>
+      <c r="AD6" s="158"/>
+      <c r="AE6" s="158"/>
+      <c r="AF6" s="158"/>
+      <c r="AG6" s="158"/>
+      <c r="AH6" s="158"/>
+      <c r="AI6" s="158"/>
+      <c r="AJ6" s="158"/>
+      <c r="AK6" s="158"/>
+      <c r="AL6" s="158"/>
+      <c r="AM6" s="158"/>
+      <c r="AN6" s="158"/>
+      <c r="AO6" s="158"/>
+      <c r="AP6" s="158"/>
+      <c r="AQ6" s="158"/>
+      <c r="AR6" s="158"/>
+      <c r="AS6" s="158"/>
+      <c r="AT6" s="159"/>
     </row>
     <row r="7" spans="1:57" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="141"/>
-      <c r="C7" s="142"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="148"/>
-      <c r="K7" s="148"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="148"/>
-      <c r="N7" s="148"/>
-      <c r="O7" s="148"/>
-      <c r="P7" s="148"/>
-      <c r="Q7" s="148"/>
-      <c r="R7" s="148"/>
-      <c r="S7" s="148"/>
-      <c r="T7" s="148"/>
-      <c r="U7" s="148"/>
-      <c r="V7" s="148"/>
-      <c r="W7" s="148"/>
-      <c r="X7" s="148"/>
-      <c r="Y7" s="148"/>
-      <c r="Z7" s="148"/>
-      <c r="AA7" s="148"/>
-      <c r="AB7" s="148"/>
-      <c r="AC7" s="148"/>
-      <c r="AD7" s="148"/>
-      <c r="AE7" s="148"/>
-      <c r="AF7" s="148"/>
-      <c r="AG7" s="148"/>
-      <c r="AH7" s="148"/>
-      <c r="AI7" s="148"/>
-      <c r="AJ7" s="148"/>
-      <c r="AK7" s="148"/>
-      <c r="AL7" s="148"/>
-      <c r="AM7" s="148"/>
-      <c r="AN7" s="148"/>
-      <c r="AO7" s="148"/>
-      <c r="AP7" s="148"/>
-      <c r="AQ7" s="148"/>
-      <c r="AR7" s="148"/>
-      <c r="AS7" s="148"/>
-      <c r="AT7" s="149"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
+      <c r="L7" s="161"/>
+      <c r="M7" s="161"/>
+      <c r="N7" s="161"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="161"/>
+      <c r="S7" s="161"/>
+      <c r="T7" s="161"/>
+      <c r="U7" s="161"/>
+      <c r="V7" s="161"/>
+      <c r="W7" s="161"/>
+      <c r="X7" s="161"/>
+      <c r="Y7" s="161"/>
+      <c r="Z7" s="161"/>
+      <c r="AA7" s="161"/>
+      <c r="AB7" s="161"/>
+      <c r="AC7" s="161"/>
+      <c r="AD7" s="161"/>
+      <c r="AE7" s="161"/>
+      <c r="AF7" s="161"/>
+      <c r="AG7" s="161"/>
+      <c r="AH7" s="161"/>
+      <c r="AI7" s="161"/>
+      <c r="AJ7" s="161"/>
+      <c r="AK7" s="161"/>
+      <c r="AL7" s="161"/>
+      <c r="AM7" s="161"/>
+      <c r="AN7" s="161"/>
+      <c r="AO7" s="161"/>
+      <c r="AP7" s="161"/>
+      <c r="AQ7" s="161"/>
+      <c r="AR7" s="161"/>
+      <c r="AS7" s="161"/>
+      <c r="AT7" s="162"/>
     </row>
     <row r="8" spans="1:57" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="16"/>
@@ -5984,144 +5984,144 @@
     </row>
     <row r="10" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="16"/>
-      <c r="C10" s="150" t="s">
+      <c r="C10" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="150"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="150"/>
-      <c r="L10" s="150"/>
-      <c r="M10" s="150"/>
-      <c r="N10" s="150"/>
-      <c r="O10" s="150"/>
-      <c r="P10" s="150"/>
-      <c r="Q10" s="150"/>
-      <c r="R10" s="150"/>
-      <c r="S10" s="150"/>
-      <c r="T10" s="150"/>
-      <c r="U10" s="150"/>
-      <c r="V10" s="150"/>
-      <c r="W10" s="150"/>
-      <c r="X10" s="150"/>
-      <c r="Y10" s="150"/>
-      <c r="Z10" s="150"/>
-      <c r="AA10" s="150"/>
-      <c r="AB10" s="150"/>
-      <c r="AC10" s="150"/>
-      <c r="AD10" s="150"/>
-      <c r="AE10" s="150"/>
-      <c r="AF10" s="150"/>
-      <c r="AG10" s="150"/>
-      <c r="AH10" s="150"/>
-      <c r="AI10" s="150"/>
-      <c r="AJ10" s="150"/>
-      <c r="AK10" s="150"/>
-      <c r="AL10" s="150"/>
-      <c r="AM10" s="150"/>
-      <c r="AN10" s="150"/>
-      <c r="AO10" s="150"/>
-      <c r="AP10" s="150"/>
-      <c r="AQ10" s="150"/>
-      <c r="AR10" s="150"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="163"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="163"/>
+      <c r="Q10" s="163"/>
+      <c r="R10" s="163"/>
+      <c r="S10" s="163"/>
+      <c r="T10" s="163"/>
+      <c r="U10" s="163"/>
+      <c r="V10" s="163"/>
+      <c r="W10" s="163"/>
+      <c r="X10" s="163"/>
+      <c r="Y10" s="163"/>
+      <c r="Z10" s="163"/>
+      <c r="AA10" s="163"/>
+      <c r="AB10" s="163"/>
+      <c r="AC10" s="163"/>
+      <c r="AD10" s="163"/>
+      <c r="AE10" s="163"/>
+      <c r="AF10" s="163"/>
+      <c r="AG10" s="163"/>
+      <c r="AH10" s="163"/>
+      <c r="AI10" s="163"/>
+      <c r="AJ10" s="163"/>
+      <c r="AK10" s="163"/>
+      <c r="AL10" s="163"/>
+      <c r="AM10" s="163"/>
+      <c r="AN10" s="163"/>
+      <c r="AO10" s="163"/>
+      <c r="AP10" s="163"/>
+      <c r="AQ10" s="163"/>
+      <c r="AR10" s="163"/>
       <c r="AS10" s="6"/>
       <c r="AT10" s="18"/>
     </row>
     <row r="11" spans="1:57" s="66" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="16"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="150"/>
-      <c r="L11" s="150"/>
-      <c r="M11" s="150"/>
-      <c r="N11" s="150"/>
-      <c r="O11" s="150"/>
-      <c r="P11" s="150"/>
-      <c r="Q11" s="150"/>
-      <c r="R11" s="150"/>
-      <c r="S11" s="150"/>
-      <c r="T11" s="150"/>
-      <c r="U11" s="150"/>
-      <c r="V11" s="150"/>
-      <c r="W11" s="150"/>
-      <c r="X11" s="150"/>
-      <c r="Y11" s="150"/>
-      <c r="Z11" s="150"/>
-      <c r="AA11" s="150"/>
-      <c r="AB11" s="150"/>
-      <c r="AC11" s="150"/>
-      <c r="AD11" s="150"/>
-      <c r="AE11" s="150"/>
-      <c r="AF11" s="150"/>
-      <c r="AG11" s="150"/>
-      <c r="AH11" s="150"/>
-      <c r="AI11" s="150"/>
-      <c r="AJ11" s="150"/>
-      <c r="AK11" s="150"/>
-      <c r="AL11" s="150"/>
-      <c r="AM11" s="150"/>
-      <c r="AN11" s="150"/>
-      <c r="AO11" s="150"/>
-      <c r="AP11" s="150"/>
-      <c r="AQ11" s="150"/>
-      <c r="AR11" s="150"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
+      <c r="L11" s="163"/>
+      <c r="M11" s="163"/>
+      <c r="N11" s="163"/>
+      <c r="O11" s="163"/>
+      <c r="P11" s="163"/>
+      <c r="Q11" s="163"/>
+      <c r="R11" s="163"/>
+      <c r="S11" s="163"/>
+      <c r="T11" s="163"/>
+      <c r="U11" s="163"/>
+      <c r="V11" s="163"/>
+      <c r="W11" s="163"/>
+      <c r="X11" s="163"/>
+      <c r="Y11" s="163"/>
+      <c r="Z11" s="163"/>
+      <c r="AA11" s="163"/>
+      <c r="AB11" s="163"/>
+      <c r="AC11" s="163"/>
+      <c r="AD11" s="163"/>
+      <c r="AE11" s="163"/>
+      <c r="AF11" s="163"/>
+      <c r="AG11" s="163"/>
+      <c r="AH11" s="163"/>
+      <c r="AI11" s="163"/>
+      <c r="AJ11" s="163"/>
+      <c r="AK11" s="163"/>
+      <c r="AL11" s="163"/>
+      <c r="AM11" s="163"/>
+      <c r="AN11" s="163"/>
+      <c r="AO11" s="163"/>
+      <c r="AP11" s="163"/>
+      <c r="AQ11" s="163"/>
+      <c r="AR11" s="163"/>
       <c r="AS11" s="6"/>
       <c r="AT11" s="18"/>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.15">
       <c r="B12" s="16"/>
-      <c r="C12" s="150"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="150"/>
-      <c r="M12" s="150"/>
-      <c r="N12" s="150"/>
-      <c r="O12" s="150"/>
-      <c r="P12" s="150"/>
-      <c r="Q12" s="150"/>
-      <c r="R12" s="150"/>
-      <c r="S12" s="150"/>
-      <c r="T12" s="150"/>
-      <c r="U12" s="150"/>
-      <c r="V12" s="150"/>
-      <c r="W12" s="150"/>
-      <c r="X12" s="150"/>
-      <c r="Y12" s="150"/>
-      <c r="Z12" s="150"/>
-      <c r="AA12" s="150"/>
-      <c r="AB12" s="150"/>
-      <c r="AC12" s="150"/>
-      <c r="AD12" s="150"/>
-      <c r="AE12" s="150"/>
-      <c r="AF12" s="150"/>
-      <c r="AG12" s="150"/>
-      <c r="AH12" s="150"/>
-      <c r="AI12" s="150"/>
-      <c r="AJ12" s="150"/>
-      <c r="AK12" s="150"/>
-      <c r="AL12" s="150"/>
-      <c r="AM12" s="150"/>
-      <c r="AN12" s="150"/>
-      <c r="AO12" s="150"/>
-      <c r="AP12" s="150"/>
-      <c r="AQ12" s="150"/>
-      <c r="AR12" s="150"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
+      <c r="L12" s="163"/>
+      <c r="M12" s="163"/>
+      <c r="N12" s="163"/>
+      <c r="O12" s="163"/>
+      <c r="P12" s="163"/>
+      <c r="Q12" s="163"/>
+      <c r="R12" s="163"/>
+      <c r="S12" s="163"/>
+      <c r="T12" s="163"/>
+      <c r="U12" s="163"/>
+      <c r="V12" s="163"/>
+      <c r="W12" s="163"/>
+      <c r="X12" s="163"/>
+      <c r="Y12" s="163"/>
+      <c r="Z12" s="163"/>
+      <c r="AA12" s="163"/>
+      <c r="AB12" s="163"/>
+      <c r="AC12" s="163"/>
+      <c r="AD12" s="163"/>
+      <c r="AE12" s="163"/>
+      <c r="AF12" s="163"/>
+      <c r="AG12" s="163"/>
+      <c r="AH12" s="163"/>
+      <c r="AI12" s="163"/>
+      <c r="AJ12" s="163"/>
+      <c r="AK12" s="163"/>
+      <c r="AL12" s="163"/>
+      <c r="AM12" s="163"/>
+      <c r="AN12" s="163"/>
+      <c r="AO12" s="163"/>
+      <c r="AP12" s="163"/>
+      <c r="AQ12" s="163"/>
+      <c r="AR12" s="163"/>
       <c r="AS12" s="6"/>
       <c r="AT12" s="18"/>
     </row>
@@ -6176,284 +6176,284 @@
     </row>
     <row r="14" spans="1:57" s="66" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16"/>
-      <c r="C14" s="151" t="s">
+      <c r="C14" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="154" t="s">
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="152"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="152"/>
-      <c r="N14" s="152"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="152"/>
-      <c r="Q14" s="152"/>
-      <c r="R14" s="152"/>
-      <c r="S14" s="155"/>
-      <c r="T14" s="156" t="s">
+      <c r="K14" s="165"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="165"/>
+      <c r="N14" s="165"/>
+      <c r="O14" s="165"/>
+      <c r="P14" s="165"/>
+      <c r="Q14" s="165"/>
+      <c r="R14" s="165"/>
+      <c r="S14" s="168"/>
+      <c r="T14" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="U14" s="152"/>
-      <c r="V14" s="152"/>
-      <c r="W14" s="155"/>
-      <c r="X14" s="156" t="s">
+      <c r="U14" s="165"/>
+      <c r="V14" s="165"/>
+      <c r="W14" s="168"/>
+      <c r="X14" s="169" t="s">
         <v>55</v>
       </c>
-      <c r="Y14" s="152"/>
-      <c r="Z14" s="152"/>
-      <c r="AA14" s="155"/>
-      <c r="AB14" s="156" t="s">
+      <c r="Y14" s="165"/>
+      <c r="Z14" s="165"/>
+      <c r="AA14" s="168"/>
+      <c r="AB14" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="AC14" s="152"/>
-      <c r="AD14" s="152"/>
-      <c r="AE14" s="155"/>
-      <c r="AF14" s="156" t="s">
+      <c r="AC14" s="165"/>
+      <c r="AD14" s="165"/>
+      <c r="AE14" s="168"/>
+      <c r="AF14" s="169" t="s">
         <v>57</v>
       </c>
-      <c r="AG14" s="155"/>
-      <c r="AH14" s="156" t="s">
+      <c r="AG14" s="168"/>
+      <c r="AH14" s="169" t="s">
         <v>58</v>
       </c>
-      <c r="AI14" s="152"/>
-      <c r="AJ14" s="152"/>
-      <c r="AK14" s="152"/>
-      <c r="AL14" s="152"/>
-      <c r="AM14" s="152"/>
-      <c r="AN14" s="152"/>
-      <c r="AO14" s="152"/>
-      <c r="AP14" s="152"/>
-      <c r="AQ14" s="152"/>
-      <c r="AR14" s="152"/>
-      <c r="AS14" s="157"/>
+      <c r="AI14" s="165"/>
+      <c r="AJ14" s="165"/>
+      <c r="AK14" s="165"/>
+      <c r="AL14" s="165"/>
+      <c r="AM14" s="165"/>
+      <c r="AN14" s="165"/>
+      <c r="AO14" s="165"/>
+      <c r="AP14" s="165"/>
+      <c r="AQ14" s="165"/>
+      <c r="AR14" s="165"/>
+      <c r="AS14" s="170"/>
       <c r="AT14" s="18"/>
     </row>
     <row r="15" spans="1:57" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16"/>
-      <c r="C15" s="163" t="s">
+      <c r="C15" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="166" t="s">
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="K15" s="164"/>
-      <c r="L15" s="164"/>
-      <c r="M15" s="164"/>
-      <c r="N15" s="164"/>
-      <c r="O15" s="164"/>
-      <c r="P15" s="164"/>
-      <c r="Q15" s="164"/>
-      <c r="R15" s="164"/>
-      <c r="S15" s="165"/>
-      <c r="T15" s="166" t="s">
+      <c r="K15" s="148"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="148"/>
+      <c r="N15" s="148"/>
+      <c r="O15" s="148"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="148"/>
+      <c r="R15" s="148"/>
+      <c r="S15" s="149"/>
+      <c r="T15" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="U15" s="164"/>
-      <c r="V15" s="164"/>
-      <c r="W15" s="165"/>
-      <c r="X15" s="166"/>
-      <c r="Y15" s="164"/>
-      <c r="Z15" s="164"/>
-      <c r="AA15" s="165"/>
-      <c r="AB15" s="166"/>
-      <c r="AC15" s="164"/>
-      <c r="AD15" s="164"/>
-      <c r="AE15" s="165"/>
-      <c r="AF15" s="158" t="s">
+      <c r="U15" s="148"/>
+      <c r="V15" s="148"/>
+      <c r="W15" s="149"/>
+      <c r="X15" s="150"/>
+      <c r="Y15" s="148"/>
+      <c r="Z15" s="148"/>
+      <c r="AA15" s="149"/>
+      <c r="AB15" s="150"/>
+      <c r="AC15" s="148"/>
+      <c r="AD15" s="148"/>
+      <c r="AE15" s="149"/>
+      <c r="AF15" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="AG15" s="159"/>
-      <c r="AH15" s="160"/>
-      <c r="AI15" s="161"/>
-      <c r="AJ15" s="161"/>
-      <c r="AK15" s="161"/>
-      <c r="AL15" s="161"/>
-      <c r="AM15" s="161"/>
-      <c r="AN15" s="161"/>
-      <c r="AO15" s="161"/>
-      <c r="AP15" s="161"/>
-      <c r="AQ15" s="161"/>
-      <c r="AR15" s="161"/>
-      <c r="AS15" s="162"/>
+      <c r="AG15" s="143"/>
+      <c r="AH15" s="144"/>
+      <c r="AI15" s="145"/>
+      <c r="AJ15" s="145"/>
+      <c r="AK15" s="145"/>
+      <c r="AL15" s="145"/>
+      <c r="AM15" s="145"/>
+      <c r="AN15" s="145"/>
+      <c r="AO15" s="145"/>
+      <c r="AP15" s="145"/>
+      <c r="AQ15" s="145"/>
+      <c r="AR15" s="145"/>
+      <c r="AS15" s="146"/>
       <c r="AT15" s="19"/>
     </row>
     <row r="16" spans="1:57" s="66" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="16"/>
-      <c r="C16" s="163" t="s">
+      <c r="C16" s="147" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="165"/>
-      <c r="J16" s="166" t="s">
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="150" t="s">
         <v>70</v>
       </c>
-      <c r="K16" s="164"/>
-      <c r="L16" s="164"/>
-      <c r="M16" s="164"/>
-      <c r="N16" s="164"/>
-      <c r="O16" s="164"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="164"/>
-      <c r="R16" s="164"/>
-      <c r="S16" s="165"/>
-      <c r="T16" s="166" t="s">
+      <c r="K16" s="148"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="148"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="148"/>
+      <c r="P16" s="148"/>
+      <c r="Q16" s="148"/>
+      <c r="R16" s="148"/>
+      <c r="S16" s="149"/>
+      <c r="T16" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="U16" s="164"/>
-      <c r="V16" s="164"/>
-      <c r="W16" s="165"/>
-      <c r="X16" s="166"/>
-      <c r="Y16" s="164"/>
-      <c r="Z16" s="164"/>
-      <c r="AA16" s="165"/>
-      <c r="AB16" s="166"/>
-      <c r="AC16" s="164"/>
-      <c r="AD16" s="164"/>
-      <c r="AE16" s="165"/>
-      <c r="AF16" s="158" t="s">
+      <c r="U16" s="148"/>
+      <c r="V16" s="148"/>
+      <c r="W16" s="149"/>
+      <c r="X16" s="150"/>
+      <c r="Y16" s="148"/>
+      <c r="Z16" s="148"/>
+      <c r="AA16" s="149"/>
+      <c r="AB16" s="150"/>
+      <c r="AC16" s="148"/>
+      <c r="AD16" s="148"/>
+      <c r="AE16" s="149"/>
+      <c r="AF16" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="AG16" s="159"/>
-      <c r="AH16" s="160"/>
-      <c r="AI16" s="161"/>
-      <c r="AJ16" s="161"/>
-      <c r="AK16" s="161"/>
-      <c r="AL16" s="161"/>
-      <c r="AM16" s="161"/>
-      <c r="AN16" s="161"/>
-      <c r="AO16" s="161"/>
-      <c r="AP16" s="161"/>
-      <c r="AQ16" s="161"/>
-      <c r="AR16" s="161"/>
-      <c r="AS16" s="162"/>
+      <c r="AG16" s="143"/>
+      <c r="AH16" s="144"/>
+      <c r="AI16" s="145"/>
+      <c r="AJ16" s="145"/>
+      <c r="AK16" s="145"/>
+      <c r="AL16" s="145"/>
+      <c r="AM16" s="145"/>
+      <c r="AN16" s="145"/>
+      <c r="AO16" s="145"/>
+      <c r="AP16" s="145"/>
+      <c r="AQ16" s="145"/>
+      <c r="AR16" s="145"/>
+      <c r="AS16" s="146"/>
       <c r="AT16" s="19"/>
       <c r="BE16" s="60"/>
     </row>
     <row r="17" spans="2:46" s="66" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="16"/>
-      <c r="C17" s="163" t="s">
+      <c r="C17" s="147" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="164"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="166" t="s">
+      <c r="D17" s="148"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="150" t="s">
         <v>72</v>
       </c>
-      <c r="K17" s="164"/>
-      <c r="L17" s="164"/>
-      <c r="M17" s="164"/>
-      <c r="N17" s="164"/>
-      <c r="O17" s="164"/>
-      <c r="P17" s="164"/>
-      <c r="Q17" s="164"/>
-      <c r="R17" s="164"/>
-      <c r="S17" s="165"/>
-      <c r="T17" s="166" t="s">
+      <c r="K17" s="148"/>
+      <c r="L17" s="148"/>
+      <c r="M17" s="148"/>
+      <c r="N17" s="148"/>
+      <c r="O17" s="148"/>
+      <c r="P17" s="148"/>
+      <c r="Q17" s="148"/>
+      <c r="R17" s="148"/>
+      <c r="S17" s="149"/>
+      <c r="T17" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="U17" s="164"/>
-      <c r="V17" s="164"/>
-      <c r="W17" s="165"/>
-      <c r="X17" s="166"/>
-      <c r="Y17" s="164"/>
-      <c r="Z17" s="164"/>
-      <c r="AA17" s="165"/>
-      <c r="AB17" s="166"/>
-      <c r="AC17" s="164"/>
-      <c r="AD17" s="164"/>
-      <c r="AE17" s="165"/>
-      <c r="AF17" s="158" t="s">
+      <c r="U17" s="148"/>
+      <c r="V17" s="148"/>
+      <c r="W17" s="149"/>
+      <c r="X17" s="150"/>
+      <c r="Y17" s="148"/>
+      <c r="Z17" s="148"/>
+      <c r="AA17" s="149"/>
+      <c r="AB17" s="150"/>
+      <c r="AC17" s="148"/>
+      <c r="AD17" s="148"/>
+      <c r="AE17" s="149"/>
+      <c r="AF17" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="AG17" s="159"/>
-      <c r="AH17" s="160"/>
-      <c r="AI17" s="161"/>
-      <c r="AJ17" s="161"/>
-      <c r="AK17" s="161"/>
-      <c r="AL17" s="161"/>
-      <c r="AM17" s="161"/>
-      <c r="AN17" s="161"/>
-      <c r="AO17" s="161"/>
-      <c r="AP17" s="161"/>
-      <c r="AQ17" s="161"/>
-      <c r="AR17" s="161"/>
-      <c r="AS17" s="162"/>
+      <c r="AG17" s="143"/>
+      <c r="AH17" s="144"/>
+      <c r="AI17" s="145"/>
+      <c r="AJ17" s="145"/>
+      <c r="AK17" s="145"/>
+      <c r="AL17" s="145"/>
+      <c r="AM17" s="145"/>
+      <c r="AN17" s="145"/>
+      <c r="AO17" s="145"/>
+      <c r="AP17" s="145"/>
+      <c r="AQ17" s="145"/>
+      <c r="AR17" s="145"/>
+      <c r="AS17" s="146"/>
       <c r="AT17" s="19"/>
     </row>
     <row r="18" spans="2:46" s="66" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
-      <c r="C18" s="175" t="s">
+      <c r="C18" s="176" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="176"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="176"/>
-      <c r="I18" s="177"/>
-      <c r="J18" s="178" t="s">
+      <c r="D18" s="177"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="179" t="s">
         <v>74</v>
       </c>
-      <c r="K18" s="176"/>
-      <c r="L18" s="176"/>
-      <c r="M18" s="176"/>
-      <c r="N18" s="176"/>
-      <c r="O18" s="176"/>
-      <c r="P18" s="176"/>
-      <c r="Q18" s="176"/>
-      <c r="R18" s="176"/>
-      <c r="S18" s="177"/>
-      <c r="T18" s="178" t="s">
+      <c r="K18" s="177"/>
+      <c r="L18" s="177"/>
+      <c r="M18" s="177"/>
+      <c r="N18" s="177"/>
+      <c r="O18" s="177"/>
+      <c r="P18" s="177"/>
+      <c r="Q18" s="177"/>
+      <c r="R18" s="177"/>
+      <c r="S18" s="178"/>
+      <c r="T18" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="U18" s="176"/>
-      <c r="V18" s="176"/>
-      <c r="W18" s="177"/>
-      <c r="X18" s="178"/>
-      <c r="Y18" s="176"/>
-      <c r="Z18" s="176"/>
-      <c r="AA18" s="177"/>
-      <c r="AB18" s="178"/>
-      <c r="AC18" s="176"/>
-      <c r="AD18" s="176"/>
-      <c r="AE18" s="177"/>
-      <c r="AF18" s="179" t="s">
+      <c r="U18" s="177"/>
+      <c r="V18" s="177"/>
+      <c r="W18" s="178"/>
+      <c r="X18" s="179"/>
+      <c r="Y18" s="177"/>
+      <c r="Z18" s="177"/>
+      <c r="AA18" s="178"/>
+      <c r="AB18" s="179"/>
+      <c r="AC18" s="177"/>
+      <c r="AD18" s="177"/>
+      <c r="AE18" s="178"/>
+      <c r="AF18" s="171" t="s">
         <v>75</v>
       </c>
-      <c r="AG18" s="180"/>
-      <c r="AH18" s="181"/>
-      <c r="AI18" s="182"/>
-      <c r="AJ18" s="182"/>
-      <c r="AK18" s="182"/>
-      <c r="AL18" s="182"/>
-      <c r="AM18" s="182"/>
-      <c r="AN18" s="182"/>
-      <c r="AO18" s="182"/>
-      <c r="AP18" s="182"/>
-      <c r="AQ18" s="182"/>
-      <c r="AR18" s="182"/>
-      <c r="AS18" s="183"/>
+      <c r="AG18" s="172"/>
+      <c r="AH18" s="173"/>
+      <c r="AI18" s="174"/>
+      <c r="AJ18" s="174"/>
+      <c r="AK18" s="174"/>
+      <c r="AL18" s="174"/>
+      <c r="AM18" s="174"/>
+      <c r="AN18" s="174"/>
+      <c r="AO18" s="174"/>
+      <c r="AP18" s="174"/>
+      <c r="AQ18" s="174"/>
+      <c r="AR18" s="174"/>
+      <c r="AS18" s="175"/>
       <c r="AT18" s="19"/>
     </row>
     <row r="19" spans="2:46" s="66" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
@@ -6543,15 +6543,15 @@
       <c r="AJ20" s="6"/>
       <c r="AK20" s="6"/>
       <c r="AL20" s="6"/>
-      <c r="AM20" s="167" t="s">
+      <c r="AM20" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="AN20" s="168"/>
-      <c r="AO20" s="168"/>
-      <c r="AP20" s="168"/>
-      <c r="AQ20" s="168"/>
-      <c r="AR20" s="168"/>
-      <c r="AS20" s="169"/>
+      <c r="AN20" s="140"/>
+      <c r="AO20" s="140"/>
+      <c r="AP20" s="140"/>
+      <c r="AQ20" s="140"/>
+      <c r="AR20" s="140"/>
+      <c r="AS20" s="141"/>
       <c r="AT20" s="18"/>
     </row>
     <row r="21" spans="2:46" ht="16.5" x14ac:dyDescent="0.15">
@@ -7506,54 +7506,54 @@
     </row>
     <row r="41" spans="2:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="16"/>
-      <c r="C41" s="170">
+      <c r="C41" s="134">
         <v>400</v>
       </c>
-      <c r="D41" s="170"/>
-      <c r="E41" s="171" t="s">
+      <c r="D41" s="134"/>
+      <c r="E41" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="171"/>
-      <c r="G41" s="171"/>
-      <c r="H41" s="171"/>
-      <c r="I41" s="171"/>
-      <c r="J41" s="171"/>
-      <c r="K41" s="171"/>
-      <c r="L41" s="171"/>
-      <c r="M41" s="171"/>
-      <c r="N41" s="171"/>
-      <c r="O41" s="172" t="s">
+      <c r="F41" s="135"/>
+      <c r="G41" s="135"/>
+      <c r="H41" s="135"/>
+      <c r="I41" s="135"/>
+      <c r="J41" s="135"/>
+      <c r="K41" s="135"/>
+      <c r="L41" s="135"/>
+      <c r="M41" s="135"/>
+      <c r="N41" s="135"/>
+      <c r="O41" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="P41" s="172"/>
-      <c r="Q41" s="172"/>
-      <c r="R41" s="172"/>
-      <c r="S41" s="172"/>
-      <c r="T41" s="172"/>
-      <c r="U41" s="172"/>
-      <c r="V41" s="172"/>
-      <c r="W41" s="172"/>
-      <c r="X41" s="172"/>
-      <c r="Y41" s="172"/>
-      <c r="Z41" s="172"/>
-      <c r="AA41" s="172"/>
-      <c r="AB41" s="172"/>
-      <c r="AC41" s="172"/>
-      <c r="AD41" s="172"/>
-      <c r="AE41" s="172"/>
-      <c r="AF41" s="172"/>
-      <c r="AG41" s="172"/>
-      <c r="AH41" s="172"/>
-      <c r="AI41" s="172"/>
-      <c r="AJ41" s="172"/>
-      <c r="AK41" s="172"/>
-      <c r="AL41" s="172"/>
-      <c r="AM41" s="172"/>
-      <c r="AN41" s="172"/>
-      <c r="AO41" s="172"/>
-      <c r="AP41" s="172"/>
-      <c r="AQ41" s="172"/>
-      <c r="AR41" s="172"/>
+      <c r="P41" s="136"/>
+      <c r="Q41" s="136"/>
+      <c r="R41" s="136"/>
+      <c r="S41" s="136"/>
+      <c r="T41" s="136"/>
+      <c r="U41" s="136"/>
+      <c r="V41" s="136"/>
+      <c r="W41" s="136"/>
+      <c r="X41" s="136"/>
+      <c r="Y41" s="136"/>
+      <c r="Z41" s="136"/>
+      <c r="AA41" s="136"/>
+      <c r="AB41" s="136"/>
+      <c r="AC41" s="136"/>
+      <c r="AD41" s="136"/>
+      <c r="AE41" s="136"/>
+      <c r="AF41" s="136"/>
+      <c r="AG41" s="136"/>
+      <c r="AH41" s="136"/>
+      <c r="AI41" s="136"/>
+      <c r="AJ41" s="136"/>
+      <c r="AK41" s="136"/>
+      <c r="AL41" s="136"/>
+      <c r="AM41" s="136"/>
+      <c r="AN41" s="136"/>
+      <c r="AO41" s="136"/>
+      <c r="AP41" s="136"/>
+      <c r="AQ41" s="136"/>
+      <c r="AR41" s="136"/>
       <c r="AS41" s="12"/>
       <c r="AT41" s="18"/>
     </row>
@@ -7571,89 +7571,89 @@
       <c r="L42" s="13"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
-      <c r="O42" s="174"/>
-      <c r="P42" s="174"/>
-      <c r="Q42" s="174"/>
-      <c r="R42" s="174"/>
-      <c r="S42" s="174"/>
-      <c r="T42" s="174"/>
-      <c r="U42" s="174"/>
-      <c r="V42" s="174"/>
-      <c r="W42" s="174"/>
-      <c r="X42" s="174"/>
-      <c r="Y42" s="174"/>
-      <c r="Z42" s="174"/>
-      <c r="AA42" s="174"/>
-      <c r="AB42" s="174"/>
-      <c r="AC42" s="174"/>
-      <c r="AD42" s="174"/>
-      <c r="AE42" s="174"/>
-      <c r="AF42" s="174"/>
-      <c r="AG42" s="174"/>
-      <c r="AH42" s="174"/>
-      <c r="AI42" s="174"/>
-      <c r="AJ42" s="174"/>
-      <c r="AK42" s="174"/>
-      <c r="AL42" s="174"/>
-      <c r="AM42" s="174"/>
-      <c r="AN42" s="174"/>
-      <c r="AO42" s="174"/>
-      <c r="AP42" s="174"/>
-      <c r="AQ42" s="174"/>
-      <c r="AR42" s="174"/>
+      <c r="O42" s="138"/>
+      <c r="P42" s="138"/>
+      <c r="Q42" s="138"/>
+      <c r="R42" s="138"/>
+      <c r="S42" s="138"/>
+      <c r="T42" s="138"/>
+      <c r="U42" s="138"/>
+      <c r="V42" s="138"/>
+      <c r="W42" s="138"/>
+      <c r="X42" s="138"/>
+      <c r="Y42" s="138"/>
+      <c r="Z42" s="138"/>
+      <c r="AA42" s="138"/>
+      <c r="AB42" s="138"/>
+      <c r="AC42" s="138"/>
+      <c r="AD42" s="138"/>
+      <c r="AE42" s="138"/>
+      <c r="AF42" s="138"/>
+      <c r="AG42" s="138"/>
+      <c r="AH42" s="138"/>
+      <c r="AI42" s="138"/>
+      <c r="AJ42" s="138"/>
+      <c r="AK42" s="138"/>
+      <c r="AL42" s="138"/>
+      <c r="AM42" s="138"/>
+      <c r="AN42" s="138"/>
+      <c r="AO42" s="138"/>
+      <c r="AP42" s="138"/>
+      <c r="AQ42" s="138"/>
+      <c r="AR42" s="138"/>
       <c r="AS42" s="10"/>
       <c r="AT42" s="18"/>
     </row>
     <row r="43" spans="2:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="16"/>
-      <c r="C43" s="170">
+      <c r="C43" s="134">
         <v>401</v>
       </c>
-      <c r="D43" s="170"/>
-      <c r="E43" s="171" t="s">
+      <c r="D43" s="134"/>
+      <c r="E43" s="135" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="171"/>
-      <c r="G43" s="171"/>
-      <c r="H43" s="171"/>
-      <c r="I43" s="171"/>
-      <c r="J43" s="171"/>
-      <c r="K43" s="171"/>
-      <c r="L43" s="171"/>
-      <c r="M43" s="171"/>
-      <c r="N43" s="171"/>
-      <c r="O43" s="172" t="s">
+      <c r="F43" s="135"/>
+      <c r="G43" s="135"/>
+      <c r="H43" s="135"/>
+      <c r="I43" s="135"/>
+      <c r="J43" s="135"/>
+      <c r="K43" s="135"/>
+      <c r="L43" s="135"/>
+      <c r="M43" s="135"/>
+      <c r="N43" s="135"/>
+      <c r="O43" s="136" t="s">
         <v>130</v>
       </c>
-      <c r="P43" s="172"/>
-      <c r="Q43" s="172"/>
-      <c r="R43" s="172"/>
-      <c r="S43" s="172"/>
-      <c r="T43" s="172"/>
-      <c r="U43" s="172"/>
-      <c r="V43" s="172"/>
-      <c r="W43" s="172"/>
-      <c r="X43" s="172"/>
-      <c r="Y43" s="172"/>
-      <c r="Z43" s="172"/>
-      <c r="AA43" s="172"/>
-      <c r="AB43" s="172"/>
-      <c r="AC43" s="172"/>
-      <c r="AD43" s="172"/>
-      <c r="AE43" s="172"/>
-      <c r="AF43" s="172"/>
-      <c r="AG43" s="172"/>
-      <c r="AH43" s="172"/>
-      <c r="AI43" s="172"/>
-      <c r="AJ43" s="172"/>
-      <c r="AK43" s="172"/>
-      <c r="AL43" s="172"/>
-      <c r="AM43" s="172"/>
-      <c r="AN43" s="172"/>
-      <c r="AO43" s="172"/>
-      <c r="AP43" s="172"/>
-      <c r="AQ43" s="172"/>
-      <c r="AR43" s="172"/>
+      <c r="P43" s="136"/>
+      <c r="Q43" s="136"/>
+      <c r="R43" s="136"/>
+      <c r="S43" s="136"/>
+      <c r="T43" s="136"/>
+      <c r="U43" s="136"/>
+      <c r="V43" s="136"/>
+      <c r="W43" s="136"/>
+      <c r="X43" s="136"/>
+      <c r="Y43" s="136"/>
+      <c r="Z43" s="136"/>
+      <c r="AA43" s="136"/>
+      <c r="AB43" s="136"/>
+      <c r="AC43" s="136"/>
+      <c r="AD43" s="136"/>
+      <c r="AE43" s="136"/>
+      <c r="AF43" s="136"/>
+      <c r="AG43" s="136"/>
+      <c r="AH43" s="136"/>
+      <c r="AI43" s="136"/>
+      <c r="AJ43" s="136"/>
+      <c r="AK43" s="136"/>
+      <c r="AL43" s="136"/>
+      <c r="AM43" s="136"/>
+      <c r="AN43" s="136"/>
+      <c r="AO43" s="136"/>
+      <c r="AP43" s="136"/>
+      <c r="AQ43" s="136"/>
+      <c r="AR43" s="136"/>
       <c r="AS43" s="6"/>
       <c r="AT43" s="18"/>
     </row>
@@ -7671,89 +7671,89 @@
       <c r="L44" s="11"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
-      <c r="O44" s="174"/>
-      <c r="P44" s="174"/>
-      <c r="Q44" s="174"/>
-      <c r="R44" s="174"/>
-      <c r="S44" s="174"/>
-      <c r="T44" s="174"/>
-      <c r="U44" s="174"/>
-      <c r="V44" s="174"/>
-      <c r="W44" s="174"/>
-      <c r="X44" s="174"/>
-      <c r="Y44" s="174"/>
-      <c r="Z44" s="174"/>
-      <c r="AA44" s="174"/>
-      <c r="AB44" s="174"/>
-      <c r="AC44" s="174"/>
-      <c r="AD44" s="174"/>
-      <c r="AE44" s="174"/>
-      <c r="AF44" s="174"/>
-      <c r="AG44" s="174"/>
-      <c r="AH44" s="174"/>
-      <c r="AI44" s="174"/>
-      <c r="AJ44" s="174"/>
-      <c r="AK44" s="174"/>
-      <c r="AL44" s="174"/>
-      <c r="AM44" s="174"/>
-      <c r="AN44" s="174"/>
-      <c r="AO44" s="174"/>
-      <c r="AP44" s="174"/>
-      <c r="AQ44" s="174"/>
-      <c r="AR44" s="174"/>
+      <c r="O44" s="138"/>
+      <c r="P44" s="138"/>
+      <c r="Q44" s="138"/>
+      <c r="R44" s="138"/>
+      <c r="S44" s="138"/>
+      <c r="T44" s="138"/>
+      <c r="U44" s="138"/>
+      <c r="V44" s="138"/>
+      <c r="W44" s="138"/>
+      <c r="X44" s="138"/>
+      <c r="Y44" s="138"/>
+      <c r="Z44" s="138"/>
+      <c r="AA44" s="138"/>
+      <c r="AB44" s="138"/>
+      <c r="AC44" s="138"/>
+      <c r="AD44" s="138"/>
+      <c r="AE44" s="138"/>
+      <c r="AF44" s="138"/>
+      <c r="AG44" s="138"/>
+      <c r="AH44" s="138"/>
+      <c r="AI44" s="138"/>
+      <c r="AJ44" s="138"/>
+      <c r="AK44" s="138"/>
+      <c r="AL44" s="138"/>
+      <c r="AM44" s="138"/>
+      <c r="AN44" s="138"/>
+      <c r="AO44" s="138"/>
+      <c r="AP44" s="138"/>
+      <c r="AQ44" s="138"/>
+      <c r="AR44" s="138"/>
       <c r="AS44" s="10"/>
       <c r="AT44" s="18"/>
     </row>
     <row r="45" spans="2:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="16"/>
-      <c r="C45" s="170">
+      <c r="C45" s="134">
         <v>409</v>
       </c>
-      <c r="D45" s="170"/>
-      <c r="E45" s="171" t="s">
+      <c r="D45" s="134"/>
+      <c r="E45" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="F45" s="171"/>
-      <c r="G45" s="171"/>
-      <c r="H45" s="171"/>
-      <c r="I45" s="171"/>
-      <c r="J45" s="171"/>
-      <c r="K45" s="171"/>
-      <c r="L45" s="171"/>
-      <c r="M45" s="171"/>
-      <c r="N45" s="171"/>
-      <c r="O45" s="172" t="s">
+      <c r="F45" s="135"/>
+      <c r="G45" s="135"/>
+      <c r="H45" s="135"/>
+      <c r="I45" s="135"/>
+      <c r="J45" s="135"/>
+      <c r="K45" s="135"/>
+      <c r="L45" s="135"/>
+      <c r="M45" s="135"/>
+      <c r="N45" s="135"/>
+      <c r="O45" s="136" t="s">
         <v>129</v>
       </c>
-      <c r="P45" s="172"/>
-      <c r="Q45" s="172"/>
-      <c r="R45" s="172"/>
-      <c r="S45" s="172"/>
-      <c r="T45" s="172"/>
-      <c r="U45" s="172"/>
-      <c r="V45" s="172"/>
-      <c r="W45" s="172"/>
-      <c r="X45" s="172"/>
-      <c r="Y45" s="172"/>
-      <c r="Z45" s="172"/>
-      <c r="AA45" s="172"/>
-      <c r="AB45" s="172"/>
-      <c r="AC45" s="172"/>
-      <c r="AD45" s="172"/>
-      <c r="AE45" s="172"/>
-      <c r="AF45" s="172"/>
-      <c r="AG45" s="172"/>
-      <c r="AH45" s="172"/>
-      <c r="AI45" s="172"/>
-      <c r="AJ45" s="172"/>
-      <c r="AK45" s="172"/>
-      <c r="AL45" s="172"/>
-      <c r="AM45" s="172"/>
-      <c r="AN45" s="172"/>
-      <c r="AO45" s="172"/>
-      <c r="AP45" s="172"/>
-      <c r="AQ45" s="172"/>
-      <c r="AR45" s="172"/>
+      <c r="P45" s="136"/>
+      <c r="Q45" s="136"/>
+      <c r="R45" s="136"/>
+      <c r="S45" s="136"/>
+      <c r="T45" s="136"/>
+      <c r="U45" s="136"/>
+      <c r="V45" s="136"/>
+      <c r="W45" s="136"/>
+      <c r="X45" s="136"/>
+      <c r="Y45" s="136"/>
+      <c r="Z45" s="136"/>
+      <c r="AA45" s="136"/>
+      <c r="AB45" s="136"/>
+      <c r="AC45" s="136"/>
+      <c r="AD45" s="136"/>
+      <c r="AE45" s="136"/>
+      <c r="AF45" s="136"/>
+      <c r="AG45" s="136"/>
+      <c r="AH45" s="136"/>
+      <c r="AI45" s="136"/>
+      <c r="AJ45" s="136"/>
+      <c r="AK45" s="136"/>
+      <c r="AL45" s="136"/>
+      <c r="AM45" s="136"/>
+      <c r="AN45" s="136"/>
+      <c r="AO45" s="136"/>
+      <c r="AP45" s="136"/>
+      <c r="AQ45" s="136"/>
+      <c r="AR45" s="136"/>
       <c r="AS45" s="6"/>
       <c r="AT45" s="18"/>
     </row>
@@ -7771,36 +7771,36 @@
       <c r="L46" s="11"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
-      <c r="O46" s="173"/>
-      <c r="P46" s="173"/>
-      <c r="Q46" s="173"/>
-      <c r="R46" s="173"/>
-      <c r="S46" s="173"/>
-      <c r="T46" s="173"/>
-      <c r="U46" s="173"/>
-      <c r="V46" s="173"/>
-      <c r="W46" s="173"/>
-      <c r="X46" s="173"/>
-      <c r="Y46" s="173"/>
-      <c r="Z46" s="173"/>
-      <c r="AA46" s="173"/>
-      <c r="AB46" s="173"/>
-      <c r="AC46" s="173"/>
-      <c r="AD46" s="173"/>
-      <c r="AE46" s="173"/>
-      <c r="AF46" s="173"/>
-      <c r="AG46" s="173"/>
-      <c r="AH46" s="173"/>
-      <c r="AI46" s="173"/>
-      <c r="AJ46" s="173"/>
-      <c r="AK46" s="173"/>
-      <c r="AL46" s="173"/>
-      <c r="AM46" s="173"/>
-      <c r="AN46" s="173"/>
-      <c r="AO46" s="173"/>
-      <c r="AP46" s="173"/>
-      <c r="AQ46" s="173"/>
-      <c r="AR46" s="173"/>
+      <c r="O46" s="137"/>
+      <c r="P46" s="137"/>
+      <c r="Q46" s="137"/>
+      <c r="R46" s="137"/>
+      <c r="S46" s="137"/>
+      <c r="T46" s="137"/>
+      <c r="U46" s="137"/>
+      <c r="V46" s="137"/>
+      <c r="W46" s="137"/>
+      <c r="X46" s="137"/>
+      <c r="Y46" s="137"/>
+      <c r="Z46" s="137"/>
+      <c r="AA46" s="137"/>
+      <c r="AB46" s="137"/>
+      <c r="AC46" s="137"/>
+      <c r="AD46" s="137"/>
+      <c r="AE46" s="137"/>
+      <c r="AF46" s="137"/>
+      <c r="AG46" s="137"/>
+      <c r="AH46" s="137"/>
+      <c r="AI46" s="137"/>
+      <c r="AJ46" s="137"/>
+      <c r="AK46" s="137"/>
+      <c r="AL46" s="137"/>
+      <c r="AM46" s="137"/>
+      <c r="AN46" s="137"/>
+      <c r="AO46" s="137"/>
+      <c r="AP46" s="137"/>
+      <c r="AQ46" s="137"/>
+      <c r="AR46" s="137"/>
       <c r="AS46" s="6"/>
       <c r="AT46" s="18"/>
     </row>
@@ -7853,22 +7853,22 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="O43:AR44"/>
-    <mergeCell ref="AM20:AS20"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="AH17:AS17"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AH18:AS18"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="E6:AT7"/>
-    <mergeCell ref="C10:AR12"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="J14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="AB14:AE14"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AH14:AS14"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="J17:S17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="X17:AA17"/>
+    <mergeCell ref="AB17:AE17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="J18:S18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="X18:AA18"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="O45:AR46"/>
     <mergeCell ref="AH15:AS15"/>
     <mergeCell ref="C16:I16"/>
     <mergeCell ref="J16:S16"/>
@@ -7885,22 +7885,22 @@
     <mergeCell ref="AB16:AE16"/>
     <mergeCell ref="AF16:AG16"/>
     <mergeCell ref="AH16:AS16"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="J17:S17"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="X17:AA17"/>
-    <mergeCell ref="AB17:AE17"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="J18:S18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="X18:AA18"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="O45:AR46"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="E6:AT7"/>
+    <mergeCell ref="C10:AR12"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="J14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AB14:AE14"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AH14:AS14"/>
+    <mergeCell ref="O43:AR44"/>
+    <mergeCell ref="AM20:AS20"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="AH17:AS17"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AH18:AS18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -7948,168 +7948,168 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="E2" s="202" t="s">
+      <c r="E2" s="180" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="203"/>
-      <c r="T2" s="203"/>
-      <c r="U2" s="203"/>
-      <c r="V2" s="203"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="181"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="181"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="181"/>
+      <c r="V2" s="181"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="203"/>
-      <c r="S3" s="203"/>
-      <c r="T3" s="203"/>
-      <c r="U3" s="203"/>
-      <c r="V3" s="203"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="181"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="181"/>
+      <c r="Q3" s="181"/>
+      <c r="R3" s="181"/>
+      <c r="S3" s="181"/>
+      <c r="T3" s="181"/>
+      <c r="U3" s="181"/>
+      <c r="V3" s="181"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B6" s="204" t="s">
+      <c r="B6" s="182" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="G6" s="205" t="s">
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="G6" s="192" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="205"/>
-      <c r="I6" s="205"/>
-      <c r="J6" s="205"/>
-      <c r="L6" s="196" t="s">
+      <c r="H6" s="192"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="192"/>
+      <c r="L6" s="208" t="s">
         <v>102</v>
       </c>
-      <c r="M6" s="196"/>
-      <c r="N6" s="196"/>
-      <c r="O6" s="196"/>
-      <c r="Q6" s="212" t="s">
+      <c r="M6" s="208"/>
+      <c r="N6" s="208"/>
+      <c r="O6" s="208"/>
+      <c r="Q6" s="199" t="s">
         <v>114</v>
       </c>
-      <c r="R6" s="212"/>
-      <c r="S6" s="212"/>
-      <c r="T6" s="212"/>
+      <c r="R6" s="199"/>
+      <c r="S6" s="199"/>
+      <c r="T6" s="199"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="204"/>
-      <c r="G7" s="205"/>
-      <c r="H7" s="205"/>
-      <c r="I7" s="205"/>
-      <c r="J7" s="205"/>
-      <c r="L7" s="196"/>
-      <c r="M7" s="196"/>
-      <c r="N7" s="196"/>
-      <c r="O7" s="196"/>
-      <c r="Q7" s="212"/>
-      <c r="R7" s="212"/>
-      <c r="S7" s="212"/>
-      <c r="T7" s="212"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="192"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="192"/>
+      <c r="L7" s="208"/>
+      <c r="M7" s="208"/>
+      <c r="N7" s="208"/>
+      <c r="O7" s="208"/>
+      <c r="Q7" s="199"/>
+      <c r="R7" s="199"/>
+      <c r="S7" s="199"/>
+      <c r="T7" s="199"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B8" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="184" t="s">
+      <c r="C8" s="183" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="185"/>
-      <c r="E8" s="186"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="185"/>
       <c r="G8" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="206" t="s">
+      <c r="H8" s="193" t="s">
         <v>98</v>
       </c>
-      <c r="I8" s="207"/>
-      <c r="J8" s="208"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="195"/>
       <c r="L8" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="M8" s="184" t="s">
+      <c r="M8" s="183" t="s">
         <v>98</v>
       </c>
-      <c r="N8" s="185"/>
-      <c r="O8" s="186"/>
+      <c r="N8" s="184"/>
+      <c r="O8" s="185"/>
       <c r="Q8" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="R8" s="184" t="s">
+      <c r="R8" s="183" t="s">
         <v>98</v>
       </c>
-      <c r="S8" s="185"/>
-      <c r="T8" s="186"/>
+      <c r="S8" s="184"/>
+      <c r="T8" s="185"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B9" s="108">
         <v>100</v>
       </c>
-      <c r="C9" s="187" t="s">
+      <c r="C9" s="186" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="188"/>
-      <c r="E9" s="189"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="188"/>
       <c r="G9" s="116">
         <v>200</v>
       </c>
-      <c r="H9" s="209" t="s">
+      <c r="H9" s="196" t="s">
         <v>117</v>
       </c>
-      <c r="I9" s="210"/>
-      <c r="J9" s="211"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="198"/>
       <c r="L9" s="108">
         <v>400</v>
       </c>
-      <c r="M9" s="187" t="s">
+      <c r="M9" s="186" t="s">
         <v>103</v>
       </c>
-      <c r="N9" s="188"/>
-      <c r="O9" s="189"/>
+      <c r="N9" s="187"/>
+      <c r="O9" s="188"/>
       <c r="Q9" s="108">
         <v>500</v>
       </c>
-      <c r="R9" s="187" t="s">
+      <c r="R9" s="186" t="s">
         <v>115</v>
       </c>
-      <c r="S9" s="188"/>
-      <c r="T9" s="189"/>
+      <c r="S9" s="187"/>
+      <c r="T9" s="188"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B10" s="109">
         <v>101</v>
       </c>
-      <c r="C10" s="187" t="s">
+      <c r="C10" s="186" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="188"/>
-      <c r="E10" s="189"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="188"/>
       <c r="G10" s="117">
         <v>201</v>
       </c>
@@ -8137,11 +8137,11 @@
       <c r="B11" s="110">
         <v>102</v>
       </c>
-      <c r="C11" s="190" t="s">
+      <c r="C11" s="189" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="191"/>
-      <c r="E11" s="192"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="191"/>
       <c r="G11" s="117">
         <v>202</v>
       </c>
@@ -8238,12 +8238,12 @@
       <c r="T14" s="114"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B15" s="197" t="s">
+      <c r="B15" s="200" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="197"/>
-      <c r="D15" s="197"/>
-      <c r="E15" s="197"/>
+      <c r="C15" s="200"/>
+      <c r="D15" s="200"/>
+      <c r="E15" s="200"/>
       <c r="G15" s="117">
         <v>206</v>
       </c>
@@ -8268,10 +8268,10 @@
       <c r="T15" s="114"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B16" s="198"/>
-      <c r="C16" s="198"/>
-      <c r="D16" s="198"/>
-      <c r="E16" s="198"/>
+      <c r="B16" s="201"/>
+      <c r="C16" s="201"/>
+      <c r="D16" s="201"/>
+      <c r="E16" s="201"/>
       <c r="G16" s="117">
         <v>207</v>
       </c>
@@ -8297,11 +8297,11 @@
       <c r="B17" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="184" t="s">
+      <c r="C17" s="183" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="185"/>
-      <c r="E17" s="186"/>
+      <c r="D17" s="184"/>
+      <c r="E17" s="185"/>
       <c r="G17" s="117">
         <v>208</v>
       </c>
@@ -8329,19 +8329,19 @@
       <c r="B18" s="108">
         <v>100</v>
       </c>
-      <c r="C18" s="199" t="s">
+      <c r="C18" s="202" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="200"/>
-      <c r="E18" s="201"/>
+      <c r="D18" s="203"/>
+      <c r="E18" s="204"/>
       <c r="G18" s="121">
         <v>226</v>
       </c>
-      <c r="H18" s="193" t="s">
+      <c r="H18" s="205" t="s">
         <v>126</v>
       </c>
-      <c r="I18" s="194"/>
-      <c r="J18" s="195"/>
+      <c r="I18" s="206"/>
+      <c r="J18" s="207"/>
       <c r="L18" s="109">
         <v>409</v>
       </c>
@@ -8361,11 +8361,11 @@
       <c r="B19" s="109">
         <v>101</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="186" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="188"/>
-      <c r="E19" s="189"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="188"/>
       <c r="L19" s="109">
         <v>410</v>
       </c>
@@ -8385,11 +8385,11 @@
       <c r="B20" s="110">
         <v>102</v>
       </c>
-      <c r="C20" s="190" t="s">
+      <c r="C20" s="189" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="191"/>
-      <c r="E20" s="192"/>
+      <c r="D20" s="190"/>
+      <c r="E20" s="191"/>
       <c r="L20" s="109">
         <v>411</v>
       </c>
@@ -8415,9 +8415,9 @@
       <c r="Q21" s="110">
         <v>599</v>
       </c>
-      <c r="R21" s="190"/>
-      <c r="S21" s="191"/>
-      <c r="T21" s="192"/>
+      <c r="R21" s="189"/>
+      <c r="S21" s="190"/>
+      <c r="T21" s="191"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.15">
       <c r="L22" s="109">
@@ -8455,9 +8455,9 @@
       <c r="L26" s="109">
         <v>417</v>
       </c>
-      <c r="M26" s="187"/>
-      <c r="N26" s="188"/>
-      <c r="O26" s="189"/>
+      <c r="M26" s="186"/>
+      <c r="N26" s="187"/>
+      <c r="O26" s="188"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.15">
       <c r="L27" s="109">
@@ -8487,12 +8487,25 @@
       <c r="L30" s="110">
         <v>421</v>
       </c>
-      <c r="M30" s="190"/>
-      <c r="N30" s="191"/>
-      <c r="O30" s="192"/>
+      <c r="M30" s="189"/>
+      <c r="N30" s="190"/>
+      <c r="O30" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="L6:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="E2:V3"/>
     <mergeCell ref="B6:E7"/>
     <mergeCell ref="C8:E8"/>
@@ -8502,21 +8515,8 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="Q6:T7"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
     <mergeCell ref="R8:T8"/>
     <mergeCell ref="R9:T9"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="L6:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8550,18 +8550,18 @@
       <c r="D1" s="104"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="212" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="209" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="137"/>
+      <c r="D3" s="212"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="134"/>
+      <c r="A4" s="209"/>
       <c r="D4" s="99" t="s">
         <v>90</v>
       </c>
@@ -8583,7 +8583,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="211" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="99" t="s">
@@ -8591,7 +8591,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B8" s="136"/>
+      <c r="B8" s="211"/>
       <c r="D8" s="99"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -8625,13 +8625,13 @@
       <c r="D13" s="99"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="210" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="99"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="135"/>
+      <c r="A15" s="210"/>
       <c r="D15" s="99"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -8652,12 +8652,12 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="134" t="s">
+      <c r="B20" s="209" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="134"/>
+      <c r="B21" s="209"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B22" s="89" t="s">
